--- a/Dataset/DS_800.xlsx
+++ b/Dataset/DS_800.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\SpamCOVID-19\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\SpamCOVID-19\SpamCOVID-19\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="461">
   <si>
     <t>id</t>
   </si>
@@ -1520,1055 +1520,6 @@
   </si>
   <si>
     <t>The first test results for the Moderna vaccine are disappointing.</t>
-  </si>
-  <si>
-    <t>After reviewing the current research available on the drugs the FDA determined that the drugs do not meet "the statutory criteria" for emergency use authorization as they are unlikely to be effective in treating COVID.</t>
-  </si>
-  <si>
-    <t>Our daily updated is published. States reported 618k tests and 38k cases today. The death toll is 1170. https://t.co/6TdKTzT1hK</t>
-  </si>
-  <si>
-    <t>A post claims studies show the flu shot will increase a person’s susceptibility to COVID-19.</t>
-  </si>
-  <si>
-    <t>Two new labs have been activated for inclusion in the NCDC Molecular Laboratory Network: 🧪 Federal Medica Centre GeneXpert Laboratory Birnin Kebbi. 🧪Plateau State Human Virology Research Center (PLASVIREC) Plateau. #TakeResponsibility https://t.co/FGSqlmKnSf</t>
-  </si>
-  <si>
-    <t>???59 people die as pastor gives them dettol to drink in church to prevent coronavirus.??�</t>
-  </si>
-  <si>
-    <t>All vegetarian Sanatan Dharmis only need little care about Social Distancing and enjoy long healthy life.</t>
-  </si>
-  <si>
-    <t>Condom Sales Are At An All-Time High https://t.co/efRTGJCJXa #coronavirus #condoms #factory #prophylactics</t>
-  </si>
-  <si>
-    <t>A message claiming that posting anything related to coronavirus on social media has been declared a punishable offence has been doing rounds on various messaging apps.</t>
-  </si>
-  <si>
-    <t>Coronavirus: Travel and hospitality stocks hit by fears of second national lockdown https://t.co/2o6EEoUDzp</t>
-  </si>
-  <si>
-    <t>Seen those pictures of dolphins and swans returning to Venice's canals? They've been debunked Today we launch CoronaCheck a newsletter with the latest debunked COVID-19 misinformation from around the world: https://t.co/b5r37qINqy #factcheck #CoronaVirusFacts #DatosCoronaVirus</t>
-  </si>
-  <si>
-    <t>#HCPs: You may feel concerned about patients increasing their use of alcohol or other substances during COVID-19. Here are some answers to questions about #COVID19 risks and treatment options for patients who use drugs or have a substance use disorder: https://t.co/vAEXTXPs8S. https://t.co/yDTiiIp02r</t>
-  </si>
-  <si>
-    <t>A low percentage (0.5%) of COVID tests were positive which suggests enough widespread aggressive testing in Maine to detect most new cases. Identifying and isolating new cases can help contain COVID without resorting to lockdowns. https://t.co/uoU8p925U9</t>
-  </si>
-  <si>
-    <t>Cases popped back up over 23k but—because of that huge number of tests—the positivity rate went back under 6%. https://t.co/UrwSEMvsa5</t>
-  </si>
-  <si>
-    <t>Neil Diamond Says He is Altering the Words to “Sweet Caroline” to Help in the Fight Against COVID-19 https://t.co/6vqCp8OrPF #neilyoung</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: .@MoHFW_INDIA issues SOP for partial reopening of schools for students of 9th to 12th classes on a voluntary basis for taki…</t>
-  </si>
-  <si>
-    <t>Our default logic has been to use the "positive" cases only rather than positive and suspected. But on-the-ground reporting shows that both buckets of patients create strain on the hospital system. Until someone has tested negative PPE and caution must be used.</t>
-  </si>
-  <si>
-    <t>93% of the (COVID-19) cases in the state of Illinois have come from Chicago.</t>
-  </si>
-  <si>
-    <t>UPDATE ➡️Deaths registered in England &amp;amp; Wales for the week ending 3 July 2020 released by @ONS ➡️Using this data we present updated estimates of expected deaths &amp;amp; excess non-COVID-19 deaths during the #COVID19 pandemic 🔰Read full report https://t.co/tZchlfBxTg https://t.co/mD4IpP8Qvm</t>
-  </si>
-  <si>
-    <t>Latest: California fires, camel racing, coronavirus tribute; The World in Photos, Sept. 28 https://t.co/XrOOwcdiPg</t>
-  </si>
-  <si>
-    <t>Bharat Biotech’s Vice President Did Not Under Go Clinical Trial For His Company’s #COVID19 Vaccine ‘Covaxin’. An Image with false claim doing the rounds on social media. #covaxine #COVIDー19 #FactCheck https://t.co/pQWzblPEuV</t>
-  </si>
-  <si>
-    <t>The novel coronavirus can be cured by one bowl of freshly boiled garlic.</t>
-  </si>
-  <si>
-    <t>#Feeling #worried about the #coronavirus. Take the #homeopathic #remedy Arsenicum 30C once if there are many #cases in your #area, and you will #feelbetter. It might even keep you #safe.</t>
-  </si>
-  <si>
-    <t>In 1986, the founder of the Times Square Church prophesied that he saw ???a plague coming on the world and the bars and church and government will shut down,??� with New York City especially hard hit.</t>
-  </si>
-  <si>
-    <t>Thoughts on the Lancet and NEJM #COVID19 retractions. https://t.co/ua0mnlBlRE</t>
-  </si>
-  <si>
-    <t>Fox News is Reporting That Several of its Employees Now Have The C-19 Virus https://t.co/G2pp3lwfgV #donaldtrump #nancypelosi</t>
-  </si>
-  <si>
-    <t>The Philippines does not have the fastest rising number of COVID-19 cases in the Western Pacific Region as classified by the World Health Organization.</t>
-  </si>
-  <si>
-    <t>TV Globo used images of a collective funeral for the victims of a shipwreck in Lampedusa in 2013 to illustrate a story about deaths by COVID-19 in Italy.</t>
-  </si>
-  <si>
-    <t>Another Doctor lost due to COVID-19 ?
-**********
-Her last message on twitter yesterday.
-"Hi friends not coping with #Covid 19. Going to be hooked up to the ventilator sometime today. Remember me, my smile to you. Thank U 4 Ur friendship. Will miss Ull. Be safe take this deadly virus seriously. Luv u guys, " . &lt;3
-#Dr. Aisha
-She passed away today! Rest in Peace...!!
-Inna lillahi wa inna ilaihi rajeoon</t>
-  </si>
-  <si>
-    <t>You can prevent COVID-19 by avoiding cold drinks night baths soda and sweets.</t>
-  </si>
-  <si>
-    <t>Turmeric and lemon are two simple, cheap and handy things you can use regularly to fight #CoronaVirus. Homemade rasam is also very useful.” The archived version of the post can b</t>
-  </si>
-  <si>
-    <t>All of our caveats about hospitalization data remain. It would not be surprising to see hospitalizations creep back up as the data quality improves. For more details see: https://t.co/wLbFSPAfZW</t>
-  </si>
-  <si>
-    <t>_A video has been viewed millions of times in multiple posts on Facebook Weibo and Twitter alongside a claim it shows US Vice President Mike Pence delivering empty boxes to a hospital for a publicity stunt during the coronavirus crisis. The claim gained traction online after the the clip was aired on the US television show Jimmy Kimmel Live! hosted by comedian Jimmy Kimmel._</t>
-  </si>
-  <si>
-    <t>Spraying from the air triggers "chemtrails (chemical trails) lung" problems</t>
-  </si>
-  <si>
-    <t>New York schools add a COVID-19 vaccine to the mandatory school schedule.</t>
-  </si>
-  <si>
-    <t>Even during #COVID19 if you have a medical emergency seek medical care without delay. Learn more @CDCMMWR: https://t.co/hzHCrPrfN6. https://t.co/lkhZtoy47R</t>
-  </si>
-  <si>
-    <t>Health Secretary Matt Hancock says £500 isolation support payments will be made available from next Monday for people on low incomes who have to self-isolate. Get live updates here: https://t.co/Ag2kUSA09z https://t.co/n6IWcMznbK</t>
-  </si>
-  <si>
-    <t>A Pentagon study found that people who get the flu vaccine are 36% more likely to get COVID-19.</t>
-  </si>
-  <si>
-    <t>The NZ COVID Tracer app has now recorded 405000 registrations an increase of 25000 from yesterday. 15500 QR posters that have been displayed businesses that represents about 1/4 of active businesses people would likely visit like retail or hospitality venues</t>
-  </si>
-  <si>
-    <t>The positive rate continues to climb in the South and West. In the South the percentage of tests coming back positive has roughly doubled in the last month. https://t.co/oJBuCYn7ei</t>
-  </si>
-  <si>
-    <t>#ERSCongress will dissect the debate of the value/detriment of smoking in #COVID19 patients. https://t.co/AkiZnEZ6Hq</t>
-  </si>
-  <si>
-    <t>@WeVotedToLeave @PathogenScribe In India they are prescribing antihistamines daily as part of their routine prescriptions for home management of mild covid.</t>
-  </si>
-  <si>
-    <t>The latest updates from the Ministry of Health For the 14th day in a row there are no new cases of COVID-19 to report in New Zealand. Our total number of confirmed cases remains at 1154. This is the number we report to the World Health Organisation. https://t.co/WRzffjjbtl</t>
-  </si>
-  <si>
-    <t>This week we’ll reach 20 million registered cases of #COVID19 and 750 thousand deaths. Behind these statistics is a great deal of pain and suffering. Every life lost matters-@DrTedros</t>
-  </si>
-  <si>
-    <t>#CoronaCheck: Are Victoria's recent #COVID19 outbreaks related to the Black Lives Matter protests? #qanda #factcheck https://t.co/x7dXUHRUcD #coronavirusfacts</t>
-  </si>
-  <si>
-    <t>Given the devastating consequences on children youth and our societies as a whole the decision to close schools should be a last resort temporary and only at a local level in areas with intense #COVID19 transmission-@DrTedros</t>
-  </si>
-  <si>
-    <t>The total number of confirmed cases of COVID-19 is 1207 which is the number we report to the @WHO The woman in her 20s - travelled from Afghanistan via Dubai and arrived on July 14. She was on flight EK448 from Dubai to Auckland.</t>
-  </si>
-  <si>
-    <t>_An image has been shared hundreds of times in multiple Facebook posts in August 2020 which claim it shows ???Chinese tourists allowed to go out of the Auckland bubble??�. The posts were shared after New Zealand's government reimposed a coronavirus lockdown on the city of Auckland after it recorded the country???s first local transmissions of COVID-19 in more than 100 days._</t>
-  </si>
-  <si>
-    <t>Video of an elderly woman struggling to breathe lying over what seems to be a plastic bag. According to the post she was inside a bag at a hospital morgue and was rescued by her relatives.</t>
-  </si>
-  <si>
-    <t>By known positive tests the 10 states with the highest per capita number of cases are: Washington New York Colorado Massachusetts Louisiana Rhode Island New Jersey South Dakota New Hampshire Georgia</t>
-  </si>
-  <si>
-    <t>Increased testing isn’t the reason for the surge in coronavirus cases — Donald Trump's failed leadership is. https://t.co/j7vKxnlaj4</t>
-  </si>
-  <si>
-    <t>With today’s three new cases and 16 additional recovered cases our total number of active cases is 83.Of those 28 are imported cases in MIQ facilities and 55 are community cases.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: 📍MHA issues new Guidelines 📌#Unlock4 opens up more activities outside Containment Zones ✅Strict enforcement of #Lockdown in Containment Zones till 30th September 2020 Details: https://t.co/0fH0OEbzYD #StaySafe #IndiaWillWin https://t.co/oAnDJRjOuh</t>
-  </si>
-  <si>
-    <t>The novel coronavirus was ???man-made.??�</t>
-  </si>
-  <si>
-    <t>Ministry of Home Affairs in India has directed people to not post anything related to coronavirus.</t>
-  </si>
-  <si>
-    <t>Donald Trump promised to bring back jobs, but his policies crushed the manufacturing sector—and that was true even before COVID-19.
-I’ll revitalize American manufacturing and innovation and create millions of good-paying jobs so we can build back better. https://t.co/HrOOkWWQof</t>
-  </si>
-  <si>
-    <t>Second wave of PPE shortage is here. https://t.co/cVCpPEsCmY</t>
-  </si>
-  <si>
-    <t>Chinese scientists says COVID-19/coronavirus could have originated from a government laboratory. Which predicted in fiction novel in 1981, mystery? 
-#Coronavirus https://t.co/luZk4y4o6m #coronavirus https://t.co/YUevwDzkmA</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: India scales a new peak of 5 cr total #COVID tests Tests Per Million on a continuous rise pegged at 36703 today #StaySafe #IndiaWillWin https://t.co/6rS9hQfBv3</t>
-  </si>
-  <si>
-    <t>If you're a user of the data this will affect your time series. But this brings California data more in line with the way we track the rest of the nation and we hope we don't have to deal with this issue again.</t>
-  </si>
-  <si>
-    <t>#coronavirus this is extremely scary and terrifying. Drone footage shows the empty streets of Wuhan, China under its #CoronaVirus quarantine. (QuickTake) https://t.co/OwB7Afta9L</t>
-  </si>
-  <si>
-    <t>A video of a coronavirus suspect found in Hazipur (Bihar India) prison.</t>
-  </si>
-  <si>
-    <t>#HCPs: Today at 2pm ET log in to COCA Facebook profile or call in. COCA Call Topic: #COVID19 Update: Optimization Strategies for Healthcare Personal Protective Equipment (PPE). Learn more about the event at https://t.co/lVZEjLOXmH. https://t.co/8K0IaufKLI</t>
-  </si>
-  <si>
-    <t>The government raided The Medical City and other private hospitals taking away their personal protective equipment (PPE).</t>
-  </si>
-  <si>
-    <t>On a per capita basis things look quite different. NY still dominates but Louisiana—due in part to a large outbreak—has tested a lot of people. There are huge disparities in testing between the states as we've often noted. https://t.co/5x75DI44E3</t>
-  </si>
-  <si>
-    <t>STUDY: Death rate for cancer patients with symptomatic COVID-19 was 28%. https://t.co/KXB5qOVKq7 https://t.co/p74z0mW7Lz</t>
-  </si>
-  <si>
-    <t>Please share this video Neem leaves powder can cure corona within hours please share this video allah had blessed us with the corona vaccine #coronavirus #coronavacccine @WorldHealthOrg2</t>
-  </si>
-  <si>
-    <t>Physician scientist and epidemiologist John Ioannidis explains his controversial position on the #COVID lockdowns. https://t.co/BddeVDwKsh https://t.co/lnDLB99hWe</t>
-  </si>
-  <si>
-    <t>DPS School charging 350 /= for these face masks from Students . While in market its selling only 20 to 30 Rupees , very unfortunate they should distribute these masks for students free of cost . And should not charge them during this pandamic .</t>
-  </si>
-  <si>
-    <t>The flu didn't kill any Americans this year.</t>
-  </si>
-  <si>
-    <t>As of June 30: More than 2.5 million #COVID19 cases have been reported in the U.S. with 40 states and jurisdictions reporting more than 10000 cases. See how many cases have been reported in your state or county here: https://t.co/wiuFBKR3Uh https://t.co/T4CXMt3pCk</t>
-  </si>
-  <si>
-    <t>Dr Lisa Danzig shares what the #COVID19 Early Treatment Fund is doing to get control of the pandemic. https://t.co/5iPvPnUqiu</t>
-  </si>
-  <si>
-    <t>IMPORTANT INFO FOR SURGICAL MASK USERS 😷
-✅ White side facing outwards if you want to protect yourself. 
-✅ If you have flu, blue or green side facing outwards to prevent the germs from spreading outwards.
-#COVID19Pakistan #COVID2019 #CoronaVirusUpdate</t>
-  </si>
-  <si>
-    <t>If we have a circuit break now what's going to happen next? @Dr_Ellie says new 'circuit break' lockdown rules are not a long-term solution - and the risks of #COVID19 must be weighed against the increased risk of deaths from other illnesses. Latest: https://t.co/Dyom9RCRgk https://t.co/uCSdnISY9Z</t>
-  </si>
-  <si>
-    <t>Says FEMA is giving essential workers $1,000.</t>
-  </si>
-  <si>
-    <t>🎧 New Podcast: Can wearable tech + AI converge to predict diseases like #COVID19? https://t.co/YAdqa2CpFG with @EricTopol @cuttingforstone</t>
-  </si>
-  <si>
-    <t>Russia released 500 lions to ensure people would stay inside houses.</t>
-  </si>
-  <si>
-    <t>In New York “every contaminated corpse belongs to the state” and will be incinerated without any “wakes or memorial services to pay your last respects.”</t>
-  </si>
-  <si>
-    <t>Claim: Top Georgian health official Gamkrelidze said the COVID-19 vaccine will be available in Georgia in several weeks</t>
-  </si>
-  <si>
-    <t>Study shows 1 in 6 maternity health workers have had COVID-19 half of whom were completely asymptomatic. https://t.co/aQVGkpUKYV</t>
-  </si>
-  <si>
-    <t>Claim that supermarket workers are required to have a flu vaccination or face dismissal.</t>
-  </si>
-  <si>
-    <t>An analysis of hundreds of COVID reports and studies finds that there is limited spread of COVID between children and from children suggesting that children are unlikely to be sources of COVID outbreaks. Read the study: https://t.co/eu9Y5g3yuf</t>
-  </si>
-  <si>
-    <t>Coronavirus: $7trn could be lost to world economy due to pandemic says OECD https://t.co/h9obqjyxRM</t>
-  </si>
-  <si>
-    <t>Tracking city-level data allows us to see that 48% of Black people who have died from COVID-19 in Michigan are from Detroit. But the decisions that individual jurisdictions make can obscure the scale of this impact. https://t.co/N7Ex0uSP3C</t>
-  </si>
-  <si>
-    <t>The coronavirus is ???simply the common cold.??�</t>
-  </si>
-  <si>
-    <t>Human resources department institutes epic ass-covering measures in response to pandemic https://t.co/7KCfBO7W1E #pandemic #corporations</t>
-  </si>
-  <si>
-    <t>Close to half (48.8%) of #COVID19 Active Cases concentrated in 3 States: Maharashtra Karnataka &amp;amp; Andhra Pradesh. Uttar Pradesh Tamil Nadu Chhattisgarh Odisha Kerala and Telangana contribute about a quarter (24.4%) of the Active Cases. https://t.co/Ak5sJeIoTv</t>
-  </si>
-  <si>
-    <t>That brings the total number of tests completed to date 462590. COVID-19 case in South Korea: We continue to receive and analyse information about the traveller who recently tested positive upon arrival in South Korea.</t>
-  </si>
-  <si>
-    <t>Princess Cruises offers Navy tips on Coronavirus https://t.co/Xap8rTEwcv</t>
-  </si>
-  <si>
-    <t>Taking a bath with extremely hot water will prevent coronavirus! This 'False' claim is a perfect example of how fatal fake news can be. Use #MainBhiNewschecker and tell us some of the most fatal 'False' claims that you came across and debunked. https://t.co/PoUvxPuis3</t>
-  </si>
-  <si>
-    <t>#WearAMask to help slow the spread of COVID-19. When selecting a #mask you have many choices. Avoid masks made of materials that make it too hard to breathe allow #COVID19 particles to escape or are intended for healthcare workers. Learn more: https://t.co/iOQv5OMdKA. https://t.co/S4e107SVgj</t>
-  </si>
-  <si>
-    <t>RT @HHSGov: #DYK panic attacks and #COVID19 share some of the same symptoms? Visit https://t.co/36fDTtAC2O to learn how to spot the differe…</t>
-  </si>
-  <si>
-    <t>We're building out some slack channels for different types of @COVID19Tracking users. You can sign up here. https://t.co/qUT7juTqE9</t>
-  </si>
-  <si>
-    <t>Seven of New Zealand's significant clusters have closed. The most recent of these is the World Hereford Conference cluster which was closed today. Yesterday laboratories around the country completed 2813 tests bringing the total number of tests completed to date to 288987.</t>
-  </si>
-  <si>
-    <t>Golf courses are reopening in Ireland on 2nd May.</t>
-  </si>
-  <si>
-    <t>An Italian doctor who worked at the Shenzhen hospital in China issued a series of instuctions for locating and treating the new coronavirus SARS-CoV-2.</t>
-  </si>
-  <si>
-    <t>This picture show the young pregnant doctor who died from COVID-19 in Algeria.</t>
-  </si>
-  <si>
-    <t>In Spain the police came to encourage doctors to work after they gave up and wanted to quit.</t>
-  </si>
-  <si>
-    <t>RT @GaonConnection: 52 testing sites for COVID -19 in India by Indian Council of Medical Research #coronavirusindia #coronavirus #COVIDー19…</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: #CoronaWatch ◾ 2461190 total confirmed cases ◾ 1751555 cases cured/recovered ◾ 27694416 samples tested Here's the…</t>
-  </si>
-  <si>
-    <t>CDC along with state and local health departments and other partners is working to better understand the impact of #COVID19 during pregnancy on both the mother and infant. Learn about these efforts here: https://t.co/wbvgIg9Yc0. https://t.co/cdDLboeUes</t>
-  </si>
-  <si>
-    <t>Coronavirus: Facebook and NHS team up to call for blood donations ahead of second wave https://t.co/ZyZznBGe6m</t>
-  </si>
-  <si>
-    <t>Kamala Harris' sister does take hydroxychloroquine but it's for lupus — not COVID-19. https://t.co/AklU8ikRd1 https://t.co/IQ23EBkEkZ</t>
-  </si>
-  <si>
-    <t>Our partner the @CEPIvaccines is supporting 9 candidate #COVID19 vaccines that will be made available to the COVAX facility if successful 7 of which are in clinical trials. We’re also in discussions about 4 other promising vaccines-@DrTedros</t>
-  </si>
-  <si>
-    <t>146 new cases of #COVID19; 57-Lagos 27-Kano 10-Kwara 9-Edo 8-Bauchi 7-Yobe 4-Kebbi 4-Oyo 3-Katsina 3-Niger 2-Plateau 2-Borno 2-Sokoto 2-Benue 1-Gombe 1-Enugu 1-Ebonyi 1-Ogun 1-FCT 1-Rivers 4787 cases of #COVID19 in Nigeria Discharged: 959 Deaths: 158 https://t.co/vlqzSxqacq</t>
-  </si>
-  <si>
-    <t>.@realDonaldTrump claimed coronavirus cases are going up “only” due to more testing. That’s False. The number of tests across the country has increased but so has the positivity rate. https://t.co/5l9jptglAI https://t.co/An36EoVaAp</t>
-  </si>
-  <si>
-    <t>???No other country??� is having a ???second wave??� of COVID-19 ???because they are not trying to unseat a President in November.??�</t>
-  </si>
-  <si>
-    <t>Cases continued their slight drift downward but it's important to remember that outside NY-NJ-CT cases are *not* falling. https://t.co/LB17L585rx</t>
-  </si>
-  <si>
-    <t>Claim that Sweden has refused to fight coronavirus.</t>
-  </si>
-  <si>
-    <t>3 out of every 5 Nigerians who die from #COVID19 are more than 50 years old Take precautions to protect your older relatives by wearing a face mask in public practicing hand/respiratory hygiene &amp;amp; maintaining a physical distance of 2 metres from others #TakeResponsibility https://t.co/RFioR52i7C</t>
-  </si>
-  <si>
-    <t>Our daily update is published. States reported 724k tests and 44k cases. The death toll today is 1073. https://t.co/3hoJNhqO86</t>
-  </si>
-  <si>
-    <t>I live in Bolton I was offered one in Inverness' Sky News has spoken to people at testing sites in some of the country's hotspots who have shared their frustrations of trying to take a #coronavirus test so they can get back to work and school https://t.co/N6jYbI4acO</t>
-  </si>
-  <si>
-    <t>An important part of our work is data collection &amp;amp; analysis At 11:30pm daily our data team collates results received from all testing labs across states to inform Nigerians of the number of new #COVID19 cases. Results not received at this time are reported the next day https://t.co/MpG4NxovAY</t>
-  </si>
-  <si>
-    <t>COVID-19 Update There are two new cases of COVID-19 to report in managed isolation in New Zealand today. ​ ​ It has been 92 days since the last case of COVID-19 was acquired locally from an unknown source.</t>
-  </si>
-  <si>
-    <t>New nipah virus is deadlier than COVID-19 according to WHO.</t>
-  </si>
-  <si>
-    <t>Our daily update is published. States reported over 57K new cases today — another record day for cases the third this week. We’re at 721K new tests today a huge jump and our first day over 700K. There were 635 reported deaths today. https://t.co/pQKDKZgrgr</t>
-  </si>
-  <si>
-    <t>There is a COVID-19 case in Ethiopia.</t>
-  </si>
-  <si>
-    <t>Says Tom Hanks has a volleyball to keep him company while he???s quarantined.</t>
-  </si>
-  <si>
-    <t>Burglars Suffer Corona Crash https://t.co/KQXqwjIEbe #criminals #appeal #crook #burglars #breakin #goingbust</t>
-  </si>
-  <si>
-    <t>When you wear a cloth face covering you help protect those around you from #COVID19. Help keep each other safe by continuing to properly wear cloth face coverings every time the entire time you’re in public. Learn more: https://t.co/lxWMe4NUBD. https://t.co/hrWqoPfW4V</t>
-  </si>
-  <si>
-    <t>???While California is dying ??? Gavin (Newsom) is vacationing in Stevensville, MT!??�</t>
-  </si>
-  <si>
-    <t>RT @Surgeon_General: Coming up on @foxandfriends to provide an update on #COVID19 and to discuss the simple actions we can all take to prot…</t>
-  </si>
-  <si>
-    <t>There are 37 people isolating in the Auckland quarantine facility from the community which includes 17 people who have tested positive for COVID-19 and their household contacts.</t>
-  </si>
-  <si>
-    <t>At John Lewis funeral Obama told a room full of people that rooms full of people is too dangerous so we must mail in vote.</t>
-  </si>
-  <si>
-    <t>Picture of a hospital in Santo André Brazil. It says in the caption that despite the COVID-19 crisis the hospital has no patients.</t>
-  </si>
-  <si>
-    <t>Italy did not follow WHO protocol and did an autopsy on a corpse that died from COVID-19 and realised that coronavirus is actually not a virus but a bacterium which gets amplified with 5G electromagnetic radiation that also produces inflammation and hypoxia and multiple other claims.</t>
-  </si>
-  <si>
-    <t>RT @PIB_India: #IndiaFightsCorona: This pie chart shows the overall percentage of #COVID cases in 3 different categories. 73.18% of the t…</t>
-  </si>
-  <si>
-    <t>Putin enters a meeting with his ministries wearing the full yellow suit used by quarantine doctors to protect themselves against catching COVID-19.</t>
-  </si>
-  <si>
-    <t>We have stock of more than 270000 tests available across the country with more stock coming in at all times. We can process more than 12000 tests per day and we are looking to increase this over the next few days.</t>
-  </si>
-  <si>
-    <t>Test frequency matters more than test sensitivity for stopping COVID outbreaks according to new research. https://t.co/zdp4Hkbl1w</t>
-  </si>
-  <si>
-    <t>For the past 6months @NigeriaFELTP residents have been supporting the #COVID19 response in @followlasg This includes supporting operations at sample collection sites by keeping records of commodities and ensuring daily decontamination of the sites across various LGAs https://t.co/jfVDNsplGa</t>
-  </si>
-  <si>
-    <t>However that will lead to a drop in positive cases in the time series data because the state lags other reporting sources.</t>
-  </si>
-  <si>
-    <t>📢#CoronaVirusUpdates: ✅India's #COVID19 recovery rate improves to 77.74% as on September 10 2020 📍Steady improvement in India's COVID-19 recovery rate since #lockdown initiation on March 25 2020 #IndiaFightsCorona @ICMRDELHI Via @MoHFW_INDIA https://t.co/GEh7DtTBJu</t>
-  </si>
-  <si>
-    <t>Texas moved into the top 10 in the total number of COVID-19 deaths that the state has reported this year. Washington hit hard early has now fallen out of the top 20. https://t.co/XFiutAyId6</t>
-  </si>
-  <si>
-    <t>House and Senate Allocate 2 Billion to the Toilet Paper Industry and Chiquita Bananas https://t.co/ctXdp3mbF3 #toiletpaper #virus #abba</t>
-  </si>
-  <si>
-    <t>Images of a man dressed in a hospital gown who seems to run away jumping a wall of the building. According to the caption this man reported that he had gone to the health center to heal a wound in his hand when they assured him that he should be admitted for COVID-19 and that when "they were going to connect a ventilator he decided to jump from the second floor and escape".</t>
-  </si>
-  <si>
-    <t>The workers who worked between the 1990 and 2020, have the right to receive the *benefit of ₹120000 from Ministry of Labour and Employment*. Check if your name is in the list of the people who have the rights to withdraw this benefits.</t>
-  </si>
-  <si>
-    <t>‘Don’t get ill’: Britain’s 12-point coronavirus plan https://t.co/8u2bozEoDy https://t.co/smdUJaa8i0</t>
-  </si>
-  <si>
-    <t>Miracle Prayer Cloths Linked to Covid-19 Outbreak https://t.co/33FEulpFNG #moneylaundering #covid19 #televangelist</t>
-  </si>
-  <si>
-    <t>FDA eases restrictions on gay blood donors unless they’re hot
-https://t.co/Khrx9phij6 #LGBTQuarantine #coronavirus #covid19 https://t.co/kQ4wC9VzWH</t>
-  </si>
-  <si>
-    <t>Republicans promise Americans theirs will be the good kind of Death Panels #CoronavirusUSA #NotDying4WallStreet #NewsInPhoto https://t.co/EW5EPD1Cti</t>
-  </si>
-  <si>
-    <t>We have completed enrollment of our Phase 2 study of mRNA-1273 our vaccine candidate against COVID-19. Read this morning's press release here: https://t.co/RZWlyCgUUd https://t.co/FBMsaH20Pg</t>
-  </si>
-  <si>
-    <t>@SaketGokhale Indian Kits those evaluated &amp;amp; giving 100% concordance have been recommended. List is available at ICMR website. In addition US-FDA &amp;amp; EU CE certified kits are also allowed for COVID-19 testing. Cosara falls under US-FDA approved category. Therefore no special approval was given</t>
-  </si>
-  <si>
-    <t>The coronavirus disease is caused by a bacterium that in turn causes thrombosis. Moreover these bacteria get stronger under the influence of the 5G waves.</t>
-  </si>
-  <si>
-    <t>Almost 10 million #COVID19 cases or two-thirds of all cases globally are from 10 countries and almost half of all cases reported so far are from just three countries-@DrTedros</t>
-  </si>
-  <si>
-    <t>PM Narendra Modi has spoken to the Chief Ministers of seven states to discuss COVID-19 situation. With over 8000 new infections reported in the last 24 hours Maharashtra’s total COVID-19 tally has crossed the 3 lakh mark. #coronavirus #coronavirusFacts https://t.co/VymEC4oM3f</t>
-  </si>
-  <si>
-    <t>"Mama said just add limes," Bobby Boucher says of Coronavirus https://t.co/iGRvSLCaWL #news #virus #newssatire #coronavirus #viral</t>
-  </si>
-  <si>
-    <t>California set a new record for cases but some of it was backlog from LA County. COVID-19 hospitalizations are at an all-time high too. https://t.co/9joV9UASP0</t>
-  </si>
-  <si>
-    <t>Americans Find Cornoavirus Best Warded Off by Lying on Couch and Watching a Lot of T.V. https://t.co/JHVmZOiTiL #tv #health #coronavirus</t>
-  </si>
-  <si>
-    <t>In addition to our new #ReopeningSafely metrics we will continue to provide hospitalization projections based on current trends and #StayAtHome measures. See how your state is doing at https://t.co/3acBVFN1Sm https://t.co/kqLUgc8udw</t>
-  </si>
-  <si>
-    <t>Works at the Luque cemetery near paraguayan capital Asunción are related to people who died from COVID-19.</t>
-  </si>
-  <si>
-    <t>An audio message lists five ways people can prevent the novel coronavirus.</t>
-  </si>
-  <si>
-    <t>📢#CoronaVirusUpdates: 📍#COVID19 India Tracker (As on 20 September 2020 08:00 AM) ➡️Confirmed cases: 5400619 ➡️Recovered: 4303043 (79.7%)👍 ➡️Active cases: 1010824 (18.7%) ➡️Deaths: 86752 (1.6%) #IndiaFightsCorona #IndiaWillWin #StaySafe Via @MoHFW_INDIA https://t.co/BXVGmFuyRj</t>
-  </si>
-  <si>
-    <t>Ramnavmi celebrations in Akbarpur, UP, today.But we should only bash Tabligi Jamat of Nizamuddin Makraz.</t>
-  </si>
-  <si>
-    <t>WhatsApp chain sent by a doctor at Vall d'Hebron Hospital (Barcelona) about coronavirus</t>
-  </si>
-  <si>
-    <t>India’s first CRISPR #COVID19 test has been approved for use in India Tata Group and @CSIR_IND Institute of Genomics &amp;amp; Integrative Biology have indigenously developed CRISPR technology for detection of genomic sequence of #SARSCoV2 virus. Details: https://t.co/6k9ImeLsp0 https://t.co/geSIimhoJV</t>
-  </si>
-  <si>
-    <t>When it is about health #Fact is more important than #Friends advice. Here we are with another #FactCheck about #COVID19 cure. https://t.co/a7S04SugNp</t>
-  </si>
-  <si>
-    <t>RT @drharshvardhan: Launched India’s first mobile lab for #COVID19 testing to promote last-mile testing access in rural &amp;amp; inaccessible area…</t>
-  </si>
-  <si>
-    <t>All hotels, restaurants, pubs etc will be closed till 15th Oct 2020 as per tourism minister of India.</t>
-  </si>
-  <si>
-    <t>The increase in deaths is due to a backlogged addition of probable deaths in Arkansas. The state reported 147 COVID-19 deaths today a noticeable uptick. We hope to see a backfilled time series moving forward.</t>
-  </si>
-  <si>
-    <t>As at 09:30 pm 7th April there are 254 confirmed cases 44 discharged 6 deaths For more info- https://t.co/zQrpNeOfet Lagos- 130 FCT- 50 Osun- 20 Oyo- 11 Edo- 11 Bauchi- 6 Akwa Ibom- 5 Kaduna- 5 Ogun- 4 Enugu- 2 Ekiti- 2 Rivers-2 Benue- 1 Ondo- 1 Kwara- 2 Delta- 1 Katsina-1</t>
-  </si>
-  <si>
-    <t>WHO says that asymptomatic people don't transmit coronavirus.</t>
-  </si>
-  <si>
-    <t>RT @CDCDirector: #COVID19 is the most significant public health challenge to face our nation in more than a century. Help protect your fami…</t>
-  </si>
-  <si>
-    <t>Ministry of Health reminds everyone that if they have any respiratory symptoms they should seek advice from Healthline their GP or after-hours clinic about getting tested. Testing is free. #covid19 #COVIDー19 #COVID19nz</t>
-  </si>
-  <si>
-    <t>New Zealand’s number of confirmed cases of COVID-19 remains at 1219.​⁣ ​⁣ Yesterday our laboratories processed 4249 tests bringing the total number of tests completed to date to 494481. There were 542 swabs taken in managed isolation and quarantine facilities yesterday.​⁣</t>
-  </si>
-  <si>
-    <t>INCREASE IN CASES “As we’ve eased the restrictions &amp;amp; continue to increase testing capacity it’s likely we’ll see an increase in #COVID19 cases in Nigeria. Whether that increase continues or not will depend on our collective action” ~ @Chikwe_I #TakeRespinsibility 2/4 https://t.co/hYVKYQ3CQt</t>
-  </si>
-  <si>
-    <t>Sadly there are 11 people with COVID-19 in hospital today. Three are in Auckland City Hospital four in Middlemore three in North Shore and one Waikato.</t>
-  </si>
-  <si>
-    <t>... &amp;amp; goes down over the next 7 days. Available evidence does not indicate any increase in risk of transmission from #COVID cases discharged based on revised discharge criteria which also specifies that such #COVID_19 cases will be advised to isolate themselves at home... (3/4)</t>
-  </si>
-  <si>
-    <t>People of Italy throwing money on the streets because it can't save them from COVID-19.</t>
-  </si>
-  <si>
-    <t>_Israel has found a cure and a vaccine for coronavirus._</t>
-  </si>
-  <si>
-    <t>Nasser Ziberi tested positive for COVID-19</t>
-  </si>
-  <si>
-    <t>State and local health departments use CDC guidance to work with individual clinicians to make decisions about testing for the virus that causes #COVID19. To learn about testing in your community visit your state or local health department website: https://t.co/jcnPAkQpt0. https://t.co/b5obxSO9yq</t>
-  </si>
-  <si>
-    <t>The total number of confirmed cases of COVID-19 is now 1212 which is the number we report to the World Health Organization. ​ ​ There is no one in New Zealand receiving hospital-level care for COVID-19.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: There are 18 States/UTs in the country where the total number of active cases are between 5000 and upto 50000: Secretary @MoHFW_INDIA #StaySafe #IndiaWillWin @ICMRDELHI https://t.co/zgK7dyzkmm</t>
-  </si>
-  <si>
-    <t>The Consumer Affairs Agency in Japan had warned people in early March 2020 about false advertisement boasting products effective in preventing novel coronavirus infections one of which was the #COVID19 disinfection card. #COVID__19 #COVID #COVID_19 #COVIDー19 #COVID19India https://t.co/PBCXOvdo92</t>
-  </si>
-  <si>
-    <t>RT @DDIndialive: West Bengal: Kolkata Metro Rail Authority decides to resume services from September 14 in compliance with standard operati…</t>
-  </si>
-  <si>
-    <t>📢 #NCDCInTheNews ‘NCDC National Reference Laboratory Abuja has been selected as one of 12 laboratories in Africa to provide genomic sequencing capacity for #COVID19 on the continent’ https://t.co/MDwZVw9UVh</t>
-  </si>
-  <si>
-    <t>Official data show that there were more deaths in Italy in 2019 than in 2020.</t>
-  </si>
-  <si>
-    <t>My Goodness is this true? Some1nd2findout. US n mny cointrirs wth strongest Intel agencies cudnt detect d fact? WHO. cheated d world?Is Corona not a Virus but a bacterial infection and patients can cure only in one day? See this video and share it so that d facts can b verified.</t>
-  </si>
-  <si>
-    <t>As we fight the coronavirus pandemic it is also important to fight the infodemic. Do you know fake news and misinformation can bring disharmony to society? Verify before sharing and don't forget to tell the receiver #MainBhiNewschecker https://t.co/geNbF1EVLc</t>
-  </si>
-  <si>
-    <t>245 new cases of #COVID19; 131-Lagos 16-Jigawa 13-Ogun 12-Borno 9-Kaduna 9-Oyo 9-Rivers 9-Ebonyi 8-Kano 7-Kwara 5-Katsina 3-Akwa Ibom 3-Sokoto 2-Bauchi 2-Yobe 1-Anambra 1-Gombe 1-Niger 1-Ondo 1-Plateau 1-FCT 1-Bayelsa 7261 cases of #COVID19 in Nigeria Discharged: 2007 Deaths: 221 https://t.co/ITAGBMdXtB</t>
-  </si>
-  <si>
-    <t>@thephichick @NateSilver538 It's a good question! In this case these numbers are for the preceding 24-hour period. -@alexismadrigal</t>
-  </si>
-  <si>
-    <t>Our total number of confirmed cases is now 1161.⁣ ⁣ Our combined total of confirmed and probable cases is now 1511.⁣ ⁣ The number of recovered cases remains at 1482.⁣ ⁣ There are no additional deaths to report.⁣</t>
-  </si>
-  <si>
-    <t>If you can hold your breath for 10 seconds, without coughing or difficulty in breathing it indicates the absence of COVID-19 infection.</t>
-  </si>
-  <si>
-    <t>555 new cases of #COVID19Nigeria; Lagos-156 Kano-65 Ogun-57 Plateau-54 Oyo-53 Benue-43 FCT-30 Ondo-18 Kaduna-16 Akwa Ibom-13 Gombe-13 Rivers-12 Ekiti-9 Osun-8 Cross River-3 Borno-2 Edo-2 Bayelsa-1 40532 confirmed 17374 discharged 858 deaths https://t.co/ERchB70Hm3</t>
-  </si>
-  <si>
-    <t>Despite the ease of the lockdown starting 4th May it is critical for Nigerians to adhere to these measures to #PreventCOVID19 spread: 🕗Daily curfew from 8pm-6am 😷Mandatory use of mask 🕌Ban on social &amp;amp; religious gatherings 🚎 Restricted inter-state travel Share widely! https://t.co/KzfTJC1Hx7</t>
-  </si>
-  <si>
-    <t>@archillect @BellaDonaModels I got in to the hydroxychloroquine chloroquine discussion with someone today. She feels like it works people recover faster... I dissented and she told me not to believe everything I read. It’s safe because it didn’t kill Trump. I reminded her Trump never had Covid-19.</t>
-  </si>
-  <si>
-    <t>Trump announces Strategic Toilet Roll Stockpile https://t.co/yF7ZKTbFBw #donaldtrump #covid19 #toiletrollhorders #strategicreserve</t>
-  </si>
-  <si>
-    <t>World Not Telling Covid-19 How To Do Its Job But Here’s A List Of People https://t.co/deL1Oyfuoi</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India’s total Recoveries cross 23 lakh. Patients Recovered are more than three times of the Active Cases. Recoveries exceed active cases by more than 16 lakh. https://t.co/DvDGyFtekA https://t.co/FQxZVGwLD9</t>
-  </si>
-  <si>
-    <t>In the path of #HurricaneLaura? Learn your community's evacuation routes and location of emergency shelters. They may be different this year due to #COVID19. https://t.co/fdkY8dTGZe #Laura https://t.co/ppPBU2WPJv</t>
-  </si>
-  <si>
-    <t>2/ Please note that the Government of Nigeria has not validated or approved any treatment for COVID-19. In addition the use of Dexamethasone for COVID-19 treatment has not been validated by @WHO</t>
-  </si>
-  <si>
-    <t>RT @Surgeon_General: #DYK: Cloth face coverings may help prevent people who have #COVID19 but don't know that they have it or aren't exper…</t>
-  </si>
-  <si>
-    <t>The image shows COVID-19 patients and the state of coronavirus isolation ward in Pakistan.</t>
-  </si>
-  <si>
-    <t>10% of U.S. #COVID19 cases are children. https://t.co/ewxED69JbZ</t>
-  </si>
-  <si>
-    <t>We’re grateful for the leadership &amp;amp; support from @AfricaCDC to National Public Health Institutes in Africa including NCDC When the 1st #COVID19 case was confirmed in China @AfricaCDC &amp;amp; @WHOAFRO provided training to lab risk comms IPC &amp;amp; case management personnel in Nigeria https://t.co/uXsOdLHrj8</t>
-  </si>
-  <si>
-    <t>A @WebMD Poll: 27.3% of readers would get a #coronavirus vaccine as soon as it’s available; more than half would in the first year. https://t.co/uJHegnjq0X</t>
-  </si>
-  <si>
-    <t>BREAKING: Nicola Sturgeon has urged Boris Johnson to call a Cobra meeting over rising #coronavirus infections. She said: "Given serious situation across UK I have also asked again that a 4 nations COBR meeting takes place over next 48 hours." More: https://t.co/M9zqxeP5Ur https://t.co/roHnxgCT82</t>
-  </si>
-  <si>
-    <t>New @CDCMMWR finds odds of #COVID19 outbreaks in West Virginia nursing homes are 17x higher in low quality than in high quality nursing homes as rated by @CMSGov. Health depts can use CMS ratings to identify nursing homes at higher risk for COVID-19. https://t.co/he3qBYrUFa https://t.co/u8S6ArTvH3</t>
-  </si>
-  <si>
-    <t>As of today #Bihar districts with the highest active #COVID19 cases are: ▪️ #Patna: 3863 Cases ▪️ #Bhagalpur: 954 Cases ▪️ #Nalanda: 954 Cases #COVID__19 #COVID #Covid_19 #COVIDー19 #COVID19India #COVIDUpdates #coronavirus #CoronaUpdates #CoronavirusIndia #CoronaVirusUpdates https://t.co/Lcwn23Tvnp</t>
-  </si>
-  <si>
-    <t>Coronavirus is caused by snakes.</t>
-  </si>
-  <si>
-    <t>#Wildfire smoke symptoms are too similar to #coronavirus adding pressure to strapped EDs. https://t.co/VPuRrkopvS</t>
-  </si>
-  <si>
-    <t>Renata Vasconcellos, one of Brazil's most famous news anchor, contracted COVID-19.</t>
-  </si>
-  <si>
-    <t>Irish news organisations are organising a collective moment of applause for the government to praise its work in handling the coronavirus pandemic.</t>
-  </si>
-  <si>
-    <t>Claim that disease outbreaks and pandemics correspond with election years.</t>
-  </si>
-  <si>
-    <t>At least 5 dermatologic patterns exist in patients suspected or confirmed for #COVID19. https://t.co/EZmbwdHlxm https://t.co/oLOsXEELxg</t>
-  </si>
-  <si>
-    <t>The UK has a plan for reopening schools. https://t.co/ff2CLKj75P https://t.co/ppNwjh5xmw</t>
-  </si>
-  <si>
-    <t>India surpasses Russia to become the third worst-affected country worldwide after the United States and Brazil: John Hopkins University. Maharashtra government allows reopening of hotels and lodges outside containment zones from 8 July. #COVID19 #coronavirusFacts https://t.co/3Ms7InEJRK</t>
-  </si>
-  <si>
-    <t>Thirty-eight new cases of #COVID19 have been reported; 23 in Kano 5 in Gombe 3 in Kaduna 2 in Borno 2 in Abia 1 in FCT 1 in Sokoto 1 in Ekiti As at 11:10 pm 20th April there are 665 confirmed cases of #COVID19 reported in Nigeria. Discharged: 188 Deaths: 22 https://t.co/k354y8KS0W</t>
-  </si>
-  <si>
-    <t>RT @drharshvardhan: #COVID19 UPDATE 👉A total of 95735 new cases have been reported in the last 24 hours in the country 👉60% of the tota…</t>
-  </si>
-  <si>
-    <t>Our daily update is published. States reported 1.1 million tests 44k cases and 737 deaths. This is the first time we've seen more than 1 million tests reported. https://t.co/wx85TR8WcE</t>
-  </si>
-  <si>
-    <t>Of the 2159 people who left managed isolation facilities during this period around 60% have now been contacted and have tested negative for COVID-19. A further 366 people have been spoken with and referred for testing.</t>
-  </si>
-  <si>
-    <t>"I'm Putting The Little Bastards Up For Adoption": Read Some Of Ireland's Heartwarming Covid-19 Stories https://t.co/hBMTmlk06o</t>
-  </si>
-  <si>
-    <t>Contradictions plague Americans absent any consistent national messaging on #COVID19. https://t.co/TrC6WAhohh</t>
-  </si>
-  <si>
-    <t>COVID-19 Update There are 2 new cases of COVID-19 to report. Both are cases in the community and both have epidemiological links to the Auckland cluster.</t>
-  </si>
-  <si>
-    <t>.@Univcordoba clinical trial started by dosing COVID-19 patients with #HCQ, but then that #chloroquine cargo cult ship has sailed, or rather ran aground. Hence the clever investigators quickly switched to a new magic drug, #VitaminD. https://t.co/NF2KMD6DQT</t>
-  </si>
-  <si>
-    <t>A video accompanying a claim shows bodies being removed from a hospital in Iran during the novel coronavirus pandemic.</t>
-  </si>
-  <si>
-    <t>RT @DDIndialive: India's first #COVID19 vaccine candidate COVAXIN™ gets approval for human trials; it has been jointly developed by @ICMR…</t>
-  </si>
-  <si>
-    <t>_Allowances of Members of Parliament in India have been increased by 49 thousand rupees during the pandemic._</t>
-  </si>
-  <si>
-    <t>Image showing a mother hugging her baby infected with COVID-19 inside a laminar airflow room.</t>
-  </si>
-  <si>
-    <t>Meghan Markle Planning Huge $200K Birthday Party During Coronavirus Pandemic?</t>
-  </si>
-  <si>
-    <t>A video claims to show Chinese Muslims performing a communal Friday prayer in a mosque despite the novel coronavirus pandemic.</t>
-  </si>
-  <si>
-    <t>China deceived the world with the coronavirus pandemic and now is being punished by the God</t>
-  </si>
-  <si>
-    <t>A website claiming that China has confirmed that patient zero had sex with a bat.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: 📍According to the new guidelines there will be no restriction on Inter-State and Intra-State movement. #Unlock4 #StaySafe #IndiaWillWin Via @mygovindia https://t.co/O3yXoGffpy</t>
-  </si>
-  <si>
-    <t>Yesterday our laboratories completed 1960 tests bringing the total number of tests completed to date to 397470. This includes testing at managed isolation facilities and community-based testing across the country. The seven day rolling daily test average is 6950.</t>
-  </si>
-  <si>
-    <t>#COVID vaccine target in the US moves back to mid-2021; requires a full FDA approval process. https://t.co/Cnrn37a3nl</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India scales another peak. In last 24 hours 12 lakh tests were conducted across the country which is an all time record high. Total #COVID19 tests more than 6.37 cr. https://t.co/lamFdXFLs0</t>
-  </si>
-  <si>
-    <t>#INDIA: 
-A Muslim boy, Rizwan, died after being beaten up by police in Tanda (UP). His relatives say that he was hungry and went out to buy biscuits and 
-other domestic items.</t>
-  </si>
-  <si>
-    <t>_A video of an orangutan washing its hands has been viewed millions of times in Facebook Twitter and YouTube posts which claim the animal was imitating its zookeepers during the novel coronavirus pandemic._</t>
-  </si>
-  <si>
-    <t>A lab in Thane was closed for reporting false positive cases of COVID-19</t>
-  </si>
-  <si>
-    <t>This is how to test your lung for COVID-19 self-check.</t>
-  </si>
-  <si>
-    <t>There is no known cure for COVID-19 hydroxychloroquine is not a proven treatment and public health officials advise everyone to wear face masks in public. https://t.co/vIH89d6GZJ</t>
-  </si>
-  <si>
-    <t>#Dialysis patients hit hard by #COVID19 with a mortality rate of ~ 20%. https://t.co/MrStNCiJma</t>
-  </si>
-  <si>
-    <t>Drinking water every 15 minutes will protect people from coronavirus.</t>
-  </si>
-  <si>
-    <t>Our daily update is published. We’ve now tracked 20.6 million tests up 379k from yesterday the lowest total in a couple of weeks. One reason for the low number: Texas still hasn't reported. For details see: https://t.co/PZrmH4bl5Y https://t.co/QnfWxOn1gF</t>
-  </si>
-  <si>
-    <t>Authorities from the Guatemalan Ministry of Health said they would buy at least 200 respirators but there has been talk of a shortage of this type of medical equipment.</t>
-  </si>
-  <si>
-    <t>All passenger/express / other trains cancelled till September 30th due to Corona epidemic. The railway extends cancellation of all passenger/express / suburban trains till September 30 in the wake of COVID pandemic.</t>
-  </si>
-  <si>
-    <t>Fact Check: Neither The Viral Post On Coronavirus (COVID-19) Is From UNICEF Nor It Is Accurate</t>
-  </si>
-  <si>
-    <t>The greatest risk for #COVID19 infection is among those who are in close contact with people who have COVID-19. This includes family members and healthcare workers who care for people who are infected. https://t.co/Ga2u5k439X.</t>
-  </si>
-  <si>
-    <t>Videos show Chinese people spreading the coronavirus in other countries.</t>
-  </si>
-  <si>
-    <t>False: @VP Mike Pence's claim that Oklahoma flattened the COVID-19 curve. Data shows that Oklahoma’s daily caseload has risen consistently in June and to levels higher than at any point in the pandemic. https://t.co/i3ZpMDFEie https://t.co/BX8FjWE4LD</t>
-  </si>
-  <si>
-    <t>New large scale study aims to find out why BAME healthcare workers are at higher risk for COVID-19. https://t.co/yRnbULrJrt</t>
-  </si>
-  <si>
-    <t>BREAKING! Staying in lockdown and adhering to social distancing guidelines isn't necessary if you are really horny, insists Prof Neil Ferguson</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: 📍Metro rail Metro will be allowed to operate with effect from 7th September 2020👇 #StaySafe #IndiaWillWin #Unlock4 https://t.co/SvJhdHHhsS</t>
-  </si>
-  <si>
-    <t>No wearing a face mask will not cause carbon dioxide toxicity. Don't believe the misinformation on the internet. Read #CoronaCheck instead: https://t.co/WIbEdynkAK #coronavirusfacts #datoscoronavirus https://t.co/HSLybUsw4I</t>
-  </si>
-  <si>
-    <t>???This virus has a cure. It is called hydroxychloroquine, zinc, and Zithromax. I know you people want to talk about a mask. Hello? You don???t need (a) mask. There is a cure.??�</t>
-  </si>
-  <si>
-    <t>India crosses another landmark- records highest ever tests in a single day. More than 10.5 lakh #COVID19 tests conducted in the last 24 hrs. All State/UTs conducting more than 140 tests/day/million as advised by WHO. https://t.co/8KaLl3O7QY https://t.co/Wf3L1xY7Ir</t>
-  </si>
-  <si>
-    <t>242 new cases of #COVID19; 88-Lagos 64-Kano 49-Katsina 13-Kaduna 9-Ogun 6-Gombe 4-Adamawa 3-FCT 1-Ondo 1-Oyo 1–Rivers 1-Zamfara 1-Borno 1-Bauchi 4641 cases of #COVID19 in Nigeria Discharged: 902 Deaths: 150 https://t.co/2eK1cRJeH0</t>
-  </si>
-  <si>
-    <t>A video allegedly showing a man spitting on the bread slices is being shared with a communal spin in India.</t>
-  </si>
-  <si>
-    <t>74% of countries responding to a recent WHO global assessment of continuity of essential health services during #COVID19 reported that dental services have been partially or completely disrupted. This figure is higher than for any other type of essential service. https://t.co/j6RXgkHtem</t>
-  </si>
-  <si>
-    <t>@robreiner Politicized doctors are still not treating Covid + patients within 5 days. Still sending people home to quarantine for 14 days without treatment. Still not using Hydroxy chloroquine and instead using less effective drugs. This is murder!</t>
-  </si>
-  <si>
-    <t>A video has been viewed thousands of times in multiple posts on Facebook Twitter and YouTube which claim it shows Chinese police arresting people infected with the novel coronavirus.</t>
-  </si>
-  <si>
-    <t>Nurse says Brazilian states and municipalities earn federal funding for every death recorded for COVID-19.</t>
-  </si>
-  <si>
-    <t>Coronavirus: Labour conference 'with a difference' to welcome twice as many as normal annual event https://t.co/69AmGACDZb</t>
-  </si>
-  <si>
-    <t>Bill Gates predicted the coronavirus outbreak.</t>
-  </si>
-  <si>
-    <t>The novel coronavirus was made in a lab and is now spread as a way to force vaccinate people.</t>
-  </si>
-  <si>
-    <t>195 new cases of #COVID19; 82-Lagos 30-Kano 19-Zamfara 18-Sokoto 10-Borno 9-FCT 8-Oyo 5-Kebbi 5-Gombe 4-Ogun 3-Katsina 1-Kaduna 1-Adamawa 3145 confirmed cases of #COVID19 in Nigeria Discharged: 534 Deaths: 103 https://t.co/kqXEbfj66X</t>
-  </si>
-  <si>
-    <t>.@realDonaldTrump has claimed that the U.S. has "one of the lowest mortality rates in the world” from COVID-19. That's False. https://t.co/GdFjrXl032</t>
-  </si>
-  <si>
-    <t>Our daily update is published. We’ve now tracked almost 4.7 million tests up 193k (!) from yesterday. Note that we can only track tests that a state reports. For details see: https://t.co/PZrmH4bl5Y https://t.co/UAcKIDmRq2</t>
-  </si>
-  <si>
-    <t>Tear gas is more dangerous in a coronavirus pandemic experts warn. https://t.co/Yv7HE1JEjv</t>
-  </si>
-  <si>
-    <t>Fox News Report on US President Trump testing positive for COVID-19.</t>
-  </si>
-  <si>
-    <t>???Corona is so bad, this guy died twice!??�</t>
-  </si>
-  <si>
-    <t>Deaths were the lowest since Monday: 1654. The weekend reporting effect is probably in play here but nonetheless better than the reverse. https://t.co/J5rKehABeX</t>
-  </si>
-  <si>
-    <t>Regular class activity will remain closed for students up to 30.9.2020 as per @HMOIndia #unlock4: https://t.co/4Je5avT2HL GoI is following a phase-wise unlocking of activities &amp;amp; starting with the partial resumption of activities in schools for students of classes 9-12th... (1/2) https://t.co/XnA3xjAKiz</t>
-  </si>
-  <si>
-    <t>Bhutan has zero COVID-19 cases thanks to its vegetarian diet.</t>
-  </si>
-  <si>
-    <t>Our overall COVID-19 strategy remains elimination. That requires ongoing stamping out of the virus anytime it comes back. Together we have kept COVID out for 102 days - longer than any other country. We can do all of that again.</t>
-  </si>
-  <si>
-    <t>RT @drharshvardhan: #CoronaVirusUpdates 👉 The total Recoveries have demonstrated a steep exponential rise 👉 India has reported the highe…</t>
-  </si>
-  <si>
-    <t>???The State of Florida has announced measures that all workplaces with 10 employees or more are to have paid mandatory leave to avoid the spread of COVID-19 coronavirus starting on March 6, 2020. All schools are to close for 2 weeks also from March 6th.??�</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: The total recoveries in India have crossed 29 lakh (2901908) as of today. Last 10 lakh recoveries have been recorded in only 17 days in comparison to preceding 10 lakh recoveries which were recorded in 22 days. #StaySafe #IndiaWillWin @ICMRDELHI https://t.co/Ob6yFTP4AH</t>
-  </si>
-  <si>
-    <t>Health Depts: CDC guidance on #COVID19 contact tracing is now available to help plan implement and enhance COVID-19 case investigation and contact tracing efforts. Learn more: https://t.co/kzqeV8ZM61 https://t.co/iY9xaIRims</t>
-  </si>
-  <si>
-    <t>#covid19 #coronavirus #coronaoutbreak ITALY: Hospitals overwhelmed as hundreds die daily from the #coronavirus 
- https://t.co/bLha07kGJG</t>
-  </si>
-  <si>
-    <t>Not trying to sensationalize but Begum got infected, So did the driver. Imran Uncle did not get infected!</t>
-  </si>
-  <si>
-    <t>Angela Rayner says the government's figures show an average of 62000 coronavirus tests are conducted daily and asks how the Prime Minister can explain this. PM insists tests are up to 240000 a day this week. Follow #PMQs live: https://t.co/Z3vlMLXetQ https://t.co/EFNjvIrd5m</t>
-  </si>
-  <si>
-    <t>In Texas the number of currently hospitalized COVID-19 patients has been over 10k for the last three days. New York at its peak had 18.8k hospitalized COVID-19 patients. https://t.co/vhn6Z512DU</t>
-  </si>
-  <si>
-    <t>Acc to @HMOIndia #unlock4guidelines wearing of #facemask is compulsory in public places workplaces and during transport. Under DMA 2005 any person violating these measure is liable for legal action as per rules &amp;amp; regulations specified by the State/UTs: https://t.co/4Je5avT2HL https://t.co/C0FDz6eElZ</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India witnesses an Unprecedented Surge in Daily Testing. More than 11.7 lakh #COVID19 tests conducted in the last 24 hrs. More than 4.5 cr Total Tests conducted. https://t.co/BcyLVGqNyP https://t.co/2zNDxT6l76</t>
-  </si>
-  <si>
-    <t>“Majority of #COVID19 cases in Nigeria are recorded among the 31 to 40 age group while ages 50 &amp;amp; above account for majority of fatalities. When we ask that Nigerians #TakeResponsibility it’s beyond protecting one’s self but the vulnerable population as well” ~@ElsieIlori https://t.co/9KwDL0aub6</t>
-  </si>
-  <si>
-    <t>The governor of Rio de Janeiro is paying a special COVID-19 monthly allowance of BRL 836.00 to all inmates in the state. Meanwhile the emergency COVID-19 for poor people who are not convicted criminals is only BRL 600.</t>
-  </si>
-  <si>
-    <t>???The Supreme Court ruled today NO VOTING BY MAIL !!!??�</t>
-  </si>
-  <si>
-    <t>UPDATE: #COVID19 #CoronaVirus in Italy: ➡️Reproduction number R &amp;lt;1 ➡️No herd immunity reached ➡️20% return to pre-lockdown mobility may lead to resurgence in deaths ➡️Enhanced surveillance needed to reduce risk of resurgence 🔰Report https://t.co/lcFch0FxCt https://t.co/pnN4MdIEaY</t>
-  </si>
-  <si>
-    <t>China exports masks infected with COVID-19.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India has progressively maintained a low Case Fatality Rate (1.7% today compared to global average of 3.28%). The aim is to achieve a national CFR of less than 1%. There are 17 States/UTs that are even today reporting mortality figures lower than 1%. https://t.co/fSviaHEK5m</t>
-  </si>
-  <si>
-    <t>Many more cities and states will start requiring face masks and coverings. Make sure you and your loved ones are prepared. https://t.co/wsn2ghkZRp via @USATODAY</t>
-  </si>
-  <si>
-    <t>Five new cases of #COVID19 have been confirmed in Nigeria: 2 in FCT 2 in Lagos &amp;amp; 1 in Edo 2 cases are returning travellers from the UK As at 09:45 am on 23rd March there are 35 confirmed cases of #COVID19 in Nigeria. 2 have been discharged https://t.co/brTI9PFsYH</t>
-  </si>
-  <si>
-    <t>The coronavirus outbreak is caused by 5G technology.</t>
-  </si>
-  <si>
-    <t>BREAKING: Former presidential candidate Herman Cain dies of COVID-19 https://t.co/d9dh1roDLy</t>
-  </si>
-  <si>
-    <t>Deaths remained below 1500 bringing our dataset's recorded deaths to 87472. For a Wednesday this is lower than average. The cumulative total does not include 4781 probable deaths reported by NYC but not NY State. https://t.co/heaw3ZRLcH</t>
-  </si>
-  <si>
-    <t>Collecting data about race is fundamental to understanding this outbreak. We know the health care system underserves black communities. We know that Latinx and Asian communities experience overlapping but distinct barriers to care too.</t>
-  </si>
-  <si>
-    <t>Fauci called the launches “importanttesting patients both in and out of the hospital. https://t.co/Ahmd3Bz10H #coronavirus</t>
-  </si>
-  <si>
-    <t>White House Grants Covid-19 A Green Card Visa https://t.co/JR4GIlIvEC</t>
-  </si>
-  <si>
-    <t>On therapeutics the first proven therapy for severe #COVID19 #Dexamethasone was announced in June with support from the therapeutic accelerator arm and is currently in scale-up-@DrTedros https://t.co/uPGH9M7cg8</t>
-  </si>
-  <si>
-    <t>#COVID19 can be spread by people who do not have symptoms &amp;amp; do not know that they are infected. Masks can help prevent people who have COVID-19 from spreading the virus to others. Learn more: https://t.co/jkWwZTfWSS. #WearAMask #WorldMaskWeek https://t.co/FxCAq0Cj8W</t>
-  </si>
-  <si>
-    <t>Viral message showing roadmap to ease restrictions during COVID-19 is from India</t>
-  </si>
-  <si>
-    <t>The initiative would have delivered #COVID19 testing to California’s most vulnerable and disadvantaged. https://t.co/FJmwkNiFyt</t>
-  </si>
-  <si>
-    <t>Irish Drugs Cartel Announce Heroin Stimulus Package Amid Covid-19 Crisis https://t.co/qMYXvgHDbx</t>
-  </si>
-  <si>
-    <t>Did you know? Breathing in #wildfire smoke can cause symptoms similar to #COVID19 like dry cough sore throat and trouble breathing. Learn how to tell the difference: https://t.co/2xlF9MccFt. https://t.co/htKcD8wgpt</t>
-  </si>
-  <si>
-    <t>The coronavirus was created in a lab and patented.</t>
-  </si>
-  <si>
-    <t>Four people are in hospital with COVID-19 – one each at Auckland City and North Shore hospitals and two in Middlemore. All four patients are in isolation on a general ward.</t>
-  </si>
-  <si>
-    <t>NEWS! Government reveals new line of masks to allow wearers to travel freely during lockdown https://t.co/GzsTUx2xwz https://t.co/dUGeuVu1CE</t>
-  </si>
-  <si>
-    <t>Our daily update is published. We’ve now tracked 22.5 million tests up 584k from yesterday a new all-time high. Here are the states that reported over 10k new tests. For details see: https://t.co/PZrmH4bl5Y https://t.co/eoB2jEZzuU</t>
-  </si>
-  <si>
-    <t>Alcohol can wash and sanitize the digestive system.</t>
-  </si>
-  <si>
-    <t>Our latest Weekly Epidemiological Report #NCDCWER for week 30 focuses on the implementation guidelines for the extended lockdown ease in Nigeria. NCDC remains committed to keep Nigerians informed following emerging evidence on #COVID19. Read: https://t.co/ObYjUWD10g https://t.co/TBLqhJI5Q5</t>
-  </si>
-  <si>
-    <t>@Aintropy Per-capita numbers are obviously important—and we use them in some cases. But because COVID can spread quickly absolute numbers are also important.</t>
-  </si>
-  <si>
-    <t>#CoronaVirusUpdates: 📍State-wise details of Total Confirmed #COVID19 cases (till 30 August 2020 8 AM) ➡️States with 1-10000 confirmed cases ➡️States with 10001-90000 confirmed cases ➡️States with 90000+ confirmed cases ➡️Total no. of confirmed cases so far https://t.co/oZSfd0Uzjt</t>
-  </si>
-  <si>
-    <t>• The 4 cases were passengers on the Greg Mortimer cruise ship. We received confirmation that Uruguay had not previously reported these cases to the WHO. ⁣All 4 cases have recovered. ⁣ • This means New Zealand’s combined total of confirmed and probable cases is now 1503.</t>
-  </si>
-  <si>
-    <t>The latest update from the Ministry of Health: ⁣ ⁣ • Today we are reporting two new cases of COVID-19 made up of one confirmed case and one probable case.⁣ ⁣ • Both cases are linked to the St Margaret’s Hospital and Rest Home in Auckland.⁣ https://t.co/Y8erhlPRGR</t>
-  </si>
-  <si>
-    <t>At @COVID19Tracking we'd been preparing for and expecting antibody tests to show up for weeks. Just not ... in this way.</t>
-  </si>
-  <si>
-    <t>COVID has caused healthcare experts to rethink screenings. https://t.co/YcfR61hM4c</t>
-  </si>
-  <si>
-    <t>Major League Baseball is Now Considering Tearing Down Coronavirus-Infested Marlins Park https://t.co/de19ZssN07 #coronavirus #baseball</t>
-  </si>
-  <si>
-    <t>Our daily update is published. States reported 582k tests 31k cases and 1089 deaths. https://t.co/Fx5POnKR4v</t>
-  </si>
-  <si>
-    <t>Latest update from the Ministry of Health: For the 5th consecutive day there are no new cases of COVID-19 in New Zealand. Our total number of confirmed cases remains the same at 1154 and the total number of confirmed and probable cases is 1504. https://t.co/Onzfynu9oA</t>
-  </si>
-  <si>
-    <t>We’ve still had more deaths to the flu this year than we've had COVID-19.</t>
-  </si>
-  <si>
-    <t>Meeting at the chariot held in #Kalabari district of #Karnataka
-Who is to blame for #Corona?
-Why is the media not releasing it?
-The #Karnataka_BJP_government has ignored the #central_government's curfew</t>
-  </si>
-  <si>
-    <t>RT @HHSGov: How is your teen doing during #COVID19? Maintaining a social life even while #SocialDistancing is an important part of coping…</t>
-  </si>
-  <si>
-    <t>Equitable global access to tests treatments and vaccines is key to ending #COVID19 fairly effectively and efficiently. Because if one of us is at risk we are all at risk. We are only safe when everybody is safe. https://t.co/rihWnivQ0V</t>
-  </si>
-  <si>
-    <t>a doctor from Pune died of coronavirus and was cremated by Muslims in Pune</t>
-  </si>
-  <si>
-    <t>FDA Begins Planning Sequel to COVID-19 https://t.co/cUq5k2hx6N #movies #health #fda #coronavirus #epidemic #covid19</t>
-  </si>
-  <si>
-    <t>@giles7452 @William05548637 @CheeseNBranston @brianbloop2 @jeremy_hume @Edele_Bear @Macid3000 @Begentle50 @afewpoints @The_Leaver @susan04071 @chrisgregson123 @Roblev0 @mindedmusically @tripleGGGx @DavidGSmith18 @cathyby @Davidmetroland @VeuveK @jrwyke @ShaneJa16905901 @Squeakydog1 @David_Vaporium @kid_alabama @butlerrichard2 @robertcecil1608 @Sir_Tom_Tucker @fccologne4eva @daftrucker1 @Mac_Paddy54 @CarlsbadCharlie @creativ61543336 @Gazza41 @BeowulfSchaefer @RuddsBunny @MattAdkin @David19531501 @GentlemanGeorge @IrishEurophile @JohnRya13591294 @RobGooders @markwh2001 @JamesBl04750891 @viv_cooper @dw2essex @Jag11814459 @FoxInWolfs @ClareAdams @ptp335 @resiguru Covid depends on severity as does flu both can kill, hayfever isn't going to kill you
-I've had hayfever very bad before when younger not so nowadays though, I do take basic tablets/ antihistamines when pollen is high so it dosn't cause discomfort really.</t>
-  </si>
-  <si>
-    <t>Are just 99% of #COVID-19 cases “totally harmless” as @realdonaldtrump said? No. Even limited data on case death rate so far shows a rate four times higher. And then there are the people the virus sends to the hospital. https://t.co/rnqVXpEZEx</t>
-  </si>
-  <si>
-    <t>I am also doing this, taking Vitamin D for COVID.
-I think the evidence is moderate-ish right now, not conclusive. But there's no real downside at all to taking moderate doses AFAIK. And people living in the northern latitudes in the winter probably need Vitamin D anyways. https://t.co/aVSGw6LPhn</t>
-  </si>
-  <si>
-    <t>NEWS! Brexit Party’s official line on Coronavirus is ‘rubber up and don’t order mussels’ https://t.co/BcENhoWWnp https://t.co/pqis8tqssQ</t>
-  </si>
-  <si>
-    <t>@BrianStryker Totally agree that hospitalization numbers are extremely uneven. We're gonna put out a statement about this on Monday now that we've been capturing this data for long enough to see some trends. -@alexismadrigal</t>
-  </si>
-  <si>
-    <t>New daily deaths held steady at 1182 about as many as yesterday. New York continues to dominate the movement of these numbers and New York's numbers have flattened. ￼ https://t.co/IQzigNm3Nn</t>
-  </si>
-  <si>
-    <t>President Donald Trump said former President Obama funded the coronavirus that was creatical in biological Wuhan lab.</t>
-  </si>
-  <si>
-    <t>Michigan Gov. Gretchen Whitmer’s family spent May 20 at her second home breaking her own stay-at-home orders.</t>
-  </si>
-  <si>
-    <t>A photo shows two Italian nurses in a hospital a few days before they got COVID-19 and died.</t>
-  </si>
-  <si>
-    <t>COVID-19 is an abbreviation for coronavirus disease 2019 the year the first case was reported. But that hasn't stopped people from sharing other fake meanings. https://t.co/3BTBC9X43L</t>
-  </si>
-  <si>
-    <t>As the Republican National Convention nears here's a round up of recent claims from @realDonaldTrump and other Republicans on COVID-19 the economy and more. https://t.co/4hJvlbdQLx https://t.co/HG51lMModL</t>
-  </si>
-  <si>
-    <t>If you are sick with #COVID19 a public health worker may contact you to check on your health discuss who you’ve been in contact with and ask you to stay at home and self-isolate if you’re not doing so already. Answer the call to #SlowTheSpread. https://t.co/9ZN2zYTaud https://t.co/G86T1djzHO</t>
-  </si>
-  <si>
-    <t>An image of a baby born with deformities claims that the baby was suffering from coronavirus.</t>
-  </si>
-  <si>
-    <t>@ImDanThompson No. This is exactly how it was transmitted. Covid is endemic in bats/pangolins. Not come from eating of it as I understand it, but from inhalation of dried droppings in wet markets. Classic vector.</t>
-  </si>
-  <si>
-    <t>For example once a successful vaccine has been identified WHO’s strategic advisory group will provide recommendations for their appropriate and fair use. The allocation of vaccines is proposed to be rolled out in two phases-@DrTedros #COVID19</t>
-  </si>
-  <si>
-    <t>Chinese President Xi Jinping visited Muslims to understand why they are not contracting COVID-19.</t>
-  </si>
-  <si>
-    <t>Over five lakh people have recovered from COVID-19 in India so far. Due to a surge in coronavirus cases Karnataka government imposes lockdown in Bangalore from 8 pm on 14 July till 5am on 23 July. Essential services will continue to ply. #COVID19 #CoronavirusFacts https://t.co/K2uwBcaeLi</t>
-  </si>
-  <si>
-    <t>Update on MIQ numbers: There are currently 5423 people in managed isolation and quarantine. Our current effective capacity is 7091. This gives us an excess capacity of 1668. Over the next week we are projecting 2816 arrivals and 2560 departures from our facilities.</t>
-  </si>
-  <si>
-    <t>Florida Reopens Hurricane Beach https://t.co/88ulNptwdK #coronavirus #florida #lockdown</t>
-  </si>
-  <si>
-    <t>We've made a Twitter list of state (and DC!) public health departments in the United States. Follow these accounts to stay current on #COVID19: https://t.co/7JrYmLr67l</t>
-  </si>
-  <si>
-    <t>Migrant labourers in the state of Gujarat are protesting amidst the lockdown.</t>
-  </si>
-  <si>
-    <t>Having 14 face masks is enough. They can be reused every 14 days since the incubation period is 14 days.</t>
-  </si>
-  <si>
-    <t>To achieve major health priorities in times of crisis we need stronger collaboration. The GAP provides expertise &amp;amp; boost engagements among stakeholders to help countries protect health gains recover from #COVID19 and ensure health &amp;amp; wellbeing for all.👉https://t.co/mufDAOeXiQ https://t.co/JhV0b4voJd</t>
-  </si>
-  <si>
-    <t>Don't eat cabbage, as per WHO report, the coronavirus stays in cabbage for a very long time.</t>
-  </si>
-  <si>
-    <t>Daily new cases continue drifting slightly slightly lower. Today states reported ~28k cases slightly down from last Thursday. https://t.co/RWqG9AxeH6</t>
-  </si>
-  <si>
-    <t>CDC Briefing Room: Dr. Nancy Messonnier gives an update on #COVID19. For more info visit https://t.co/1ifchVQ9jm https://t.co/50P7N2OoV4</t>
   </si>
 </sst>
 </file>
@@ -2941,11 +1892,11 @@
   </sheetPr>
   <dimension ref="A1:C6421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A788" workbookViewId="0">
-      <selection activeCell="B807" sqref="B807"/>
+    <sheetView tabSelected="1" topLeftCell="A441" workbookViewId="0">
+      <selection activeCell="A458" sqref="A458:C800"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="192.5703125" customWidth="1"/>
   </cols>
@@ -7978,3777 +6929,1719 @@
       </c>
     </row>
     <row r="458" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A458" s="1">
-        <v>457</v>
-      </c>
-      <c r="B458" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C458" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A458" s="1"/>
+      <c r="B458" s="1"/>
+      <c r="C458" s="1"/>
     </row>
     <row r="459" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A459" s="1">
-        <v>458</v>
-      </c>
-      <c r="B459" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A459" s="1"/>
+      <c r="B459" s="1"/>
+      <c r="C459" s="1"/>
     </row>
     <row r="460" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A460" s="1">
-        <v>459</v>
-      </c>
-      <c r="B460" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A460" s="1"/>
+      <c r="B460" s="1"/>
+      <c r="C460" s="1"/>
     </row>
     <row r="461" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A461" s="1">
-        <v>460</v>
-      </c>
-      <c r="B461" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A461" s="1"/>
+      <c r="B461" s="1"/>
+      <c r="C461" s="1"/>
     </row>
     <row r="462" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A462" s="1">
-        <v>461</v>
-      </c>
-      <c r="B462" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A462" s="1"/>
+      <c r="B462" s="1"/>
+      <c r="C462" s="1"/>
     </row>
     <row r="463" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A463" s="1">
-        <v>462</v>
-      </c>
-      <c r="B463" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A463" s="1"/>
+      <c r="B463" s="1"/>
+      <c r="C463" s="1"/>
     </row>
     <row r="464" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A464" s="1">
-        <v>463</v>
-      </c>
-      <c r="B464" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A464" s="1"/>
+      <c r="B464" s="1"/>
+      <c r="C464" s="1"/>
     </row>
     <row r="465" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A465" s="1">
-        <v>464</v>
-      </c>
-      <c r="B465" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A465" s="1"/>
+      <c r="B465" s="1"/>
+      <c r="C465" s="1"/>
     </row>
     <row r="466" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A466" s="1">
-        <v>465</v>
-      </c>
-      <c r="B466" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C466" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A466" s="1"/>
+      <c r="B466" s="1"/>
+      <c r="C466" s="1"/>
     </row>
     <row r="467" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A467" s="1">
-        <v>466</v>
-      </c>
-      <c r="B467" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A467" s="1"/>
+      <c r="B467" s="1"/>
+      <c r="C467" s="1"/>
     </row>
     <row r="468" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A468" s="1">
-        <v>467</v>
-      </c>
-      <c r="B468" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C468" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A468" s="1"/>
+      <c r="B468" s="1"/>
+      <c r="C468" s="1"/>
     </row>
     <row r="469" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A469" s="1">
-        <v>468</v>
-      </c>
-      <c r="B469" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A469" s="1"/>
+      <c r="B469" s="1"/>
+      <c r="C469" s="1"/>
     </row>
     <row r="470" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A470" s="1">
-        <v>469</v>
-      </c>
-      <c r="B470" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A470" s="1"/>
+      <c r="B470" s="1"/>
+      <c r="C470" s="1"/>
     </row>
     <row r="471" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A471" s="1">
-        <v>470</v>
-      </c>
-      <c r="B471" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="C471" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A471" s="1"/>
+      <c r="B471" s="1"/>
+      <c r="C471" s="1"/>
     </row>
     <row r="472" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A472" s="1">
-        <v>471</v>
-      </c>
-      <c r="B472" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A472" s="1"/>
+      <c r="B472" s="1"/>
+      <c r="C472" s="1"/>
     </row>
     <row r="473" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A473" s="1">
-        <v>472</v>
-      </c>
-      <c r="B473" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A473" s="1"/>
+      <c r="B473" s="1"/>
+      <c r="C473" s="1"/>
     </row>
     <row r="474" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A474" s="1">
-        <v>473</v>
-      </c>
-      <c r="B474" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C474" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A474" s="1"/>
+      <c r="B474" s="1"/>
+      <c r="C474" s="1"/>
     </row>
     <row r="475" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A475" s="1">
-        <v>474</v>
-      </c>
-      <c r="B475" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C475" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A475" s="1"/>
+      <c r="B475" s="1"/>
+      <c r="C475" s="1"/>
     </row>
     <row r="476" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A476" s="1">
-        <v>475</v>
-      </c>
-      <c r="B476" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A476" s="1"/>
+      <c r="B476" s="1"/>
+      <c r="C476" s="1"/>
     </row>
     <row r="477" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A477" s="1">
-        <v>476</v>
-      </c>
-      <c r="B477" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A477" s="1"/>
+      <c r="B477" s="1"/>
+      <c r="C477" s="1"/>
     </row>
     <row r="478" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A478" s="1">
-        <v>477</v>
-      </c>
-      <c r="B478" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A478" s="1"/>
+      <c r="B478" s="1"/>
+      <c r="C478" s="1"/>
     </row>
     <row r="479" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A479" s="1">
-        <v>478</v>
-      </c>
-      <c r="B479" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C479" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A479" s="1"/>
+      <c r="B479" s="1"/>
+      <c r="C479" s="1"/>
     </row>
     <row r="480" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A480" s="1">
-        <v>479</v>
-      </c>
-      <c r="B480" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A480" s="1"/>
+      <c r="B480" s="1"/>
+      <c r="C480" s="1"/>
     </row>
     <row r="481" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A481" s="1">
-        <v>480</v>
-      </c>
-      <c r="B481" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A481" s="1"/>
+      <c r="B481" s="1"/>
+      <c r="C481" s="1"/>
     </row>
     <row r="482" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A482" s="1">
-        <v>481</v>
-      </c>
-      <c r="B482" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A482" s="1"/>
+      <c r="B482" s="1"/>
+      <c r="C482" s="1"/>
     </row>
     <row r="483" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A483" s="1">
-        <v>482</v>
-      </c>
-      <c r="B483" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A483" s="1"/>
+      <c r="B483" s="1"/>
+      <c r="C483" s="1"/>
     </row>
     <row r="484" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A484" s="1">
-        <v>483</v>
-      </c>
-      <c r="B484" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A484" s="1"/>
+      <c r="B484" s="1"/>
+      <c r="C484" s="1"/>
     </row>
     <row r="485" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A485" s="1">
-        <v>484</v>
-      </c>
-      <c r="B485" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A485" s="1"/>
+      <c r="B485" s="1"/>
+      <c r="C485" s="1"/>
     </row>
     <row r="486" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A486" s="1">
-        <v>485</v>
-      </c>
-      <c r="B486" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A486" s="1"/>
+      <c r="B486" s="1"/>
+      <c r="C486" s="1"/>
     </row>
     <row r="487" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A487" s="1">
-        <v>486</v>
-      </c>
-      <c r="B487" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A487" s="1"/>
+      <c r="B487" s="1"/>
+      <c r="C487" s="1"/>
     </row>
     <row r="488" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A488" s="1">
-        <v>487</v>
-      </c>
-      <c r="B488" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A488" s="1"/>
+      <c r="B488" s="1"/>
+      <c r="C488" s="1"/>
     </row>
     <row r="489" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A489" s="1">
-        <v>488</v>
-      </c>
-      <c r="B489" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="C489" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A489" s="1"/>
+      <c r="B489" s="1"/>
+      <c r="C489" s="1"/>
     </row>
     <row r="490" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A490" s="1">
-        <v>489</v>
-      </c>
-      <c r="B490" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A490" s="1"/>
+      <c r="B490" s="1"/>
+      <c r="C490" s="1"/>
     </row>
     <row r="491" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A491" s="1">
-        <v>490</v>
-      </c>
-      <c r="B491" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="C491" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A491" s="1"/>
+      <c r="B491" s="1"/>
+      <c r="C491" s="1"/>
     </row>
     <row r="492" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A492" s="1">
-        <v>491</v>
-      </c>
-      <c r="B492" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A492" s="1"/>
+      <c r="B492" s="1"/>
+      <c r="C492" s="1"/>
     </row>
     <row r="493" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A493" s="1">
-        <v>492</v>
-      </c>
-      <c r="B493" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A493" s="1"/>
+      <c r="B493" s="1"/>
+      <c r="C493" s="1"/>
     </row>
     <row r="494" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A494" s="1">
-        <v>493</v>
-      </c>
-      <c r="B494" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A494" s="1"/>
+      <c r="B494" s="1"/>
+      <c r="C494" s="1"/>
     </row>
     <row r="495" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A495" s="1">
-        <v>494</v>
-      </c>
-      <c r="B495" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A495" s="1"/>
+      <c r="B495" s="1"/>
+      <c r="C495" s="1"/>
     </row>
     <row r="496" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A496" s="1">
-        <v>495</v>
-      </c>
-      <c r="B496" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A496" s="1"/>
+      <c r="B496" s="1"/>
+      <c r="C496" s="1"/>
     </row>
     <row r="497" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A497" s="1">
-        <v>496</v>
-      </c>
-      <c r="B497" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A497" s="1"/>
+      <c r="B497" s="1"/>
+      <c r="C497" s="1"/>
     </row>
     <row r="498" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A498" s="1">
-        <v>497</v>
-      </c>
-      <c r="B498" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="C498" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A498" s="1"/>
+      <c r="B498" s="1"/>
+      <c r="C498" s="1"/>
     </row>
     <row r="499" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A499" s="1">
-        <v>498</v>
-      </c>
-      <c r="B499" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="C499" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A499" s="1"/>
+      <c r="B499" s="1"/>
+      <c r="C499" s="1"/>
     </row>
     <row r="500" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A500" s="1">
-        <v>499</v>
-      </c>
-      <c r="B500" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="C500" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A500" s="1"/>
+      <c r="B500" s="1"/>
+      <c r="C500" s="1"/>
     </row>
     <row r="501" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A501" s="1">
-        <v>500</v>
-      </c>
-      <c r="B501" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="C501" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A501" s="1"/>
+      <c r="B501" s="1"/>
+      <c r="C501" s="1"/>
     </row>
     <row r="502" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A502" s="1">
-        <v>501</v>
-      </c>
-      <c r="B502" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="C502" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A502" s="1"/>
+      <c r="B502" s="1"/>
+      <c r="C502" s="1"/>
     </row>
     <row r="503" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A503" s="1">
-        <v>502</v>
-      </c>
-      <c r="B503" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="C503" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A503" s="1"/>
+      <c r="B503" s="1"/>
+      <c r="C503" s="1"/>
     </row>
     <row r="504" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A504" s="1">
-        <v>503</v>
-      </c>
-      <c r="B504" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C504" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A504" s="1"/>
+      <c r="B504" s="1"/>
+      <c r="C504" s="1"/>
     </row>
     <row r="505" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A505" s="1">
-        <v>504</v>
-      </c>
-      <c r="B505" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="C505" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A505" s="1"/>
+      <c r="B505" s="1"/>
+      <c r="C505" s="1"/>
     </row>
     <row r="506" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A506" s="1">
-        <v>505</v>
-      </c>
-      <c r="B506" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="C506" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A506" s="1"/>
+      <c r="B506" s="1"/>
+      <c r="C506" s="1"/>
     </row>
     <row r="507" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A507" s="1">
-        <v>506</v>
-      </c>
-      <c r="B507" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C507" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A507" s="1"/>
+      <c r="B507" s="1"/>
+      <c r="C507" s="1"/>
     </row>
     <row r="508" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A508" s="1">
-        <v>507</v>
-      </c>
-      <c r="B508" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="C508" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A508" s="1"/>
+      <c r="B508" s="1"/>
+      <c r="C508" s="1"/>
     </row>
     <row r="509" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A509" s="1">
-        <v>508</v>
-      </c>
-      <c r="B509" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A509" s="1"/>
+      <c r="B509" s="1"/>
+      <c r="C509" s="1"/>
     </row>
     <row r="510" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A510" s="1">
-        <v>509</v>
-      </c>
-      <c r="B510" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C510" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A510" s="1"/>
+      <c r="B510" s="1"/>
+      <c r="C510" s="1"/>
     </row>
     <row r="511" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A511" s="1">
-        <v>510</v>
-      </c>
-      <c r="B511" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="C511" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A511" s="1"/>
+      <c r="B511" s="1"/>
+      <c r="C511" s="1"/>
     </row>
     <row r="512" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A512" s="1">
-        <v>511</v>
-      </c>
-      <c r="B512" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="C512" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A512" s="1"/>
+      <c r="B512" s="1"/>
+      <c r="C512" s="1"/>
     </row>
     <row r="513" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A513" s="1">
-        <v>512</v>
-      </c>
-      <c r="B513" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C513" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A513" s="1"/>
+      <c r="B513" s="1"/>
+      <c r="C513" s="1"/>
     </row>
     <row r="514" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A514" s="1">
-        <v>513</v>
-      </c>
-      <c r="B514" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="C514" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A514" s="1"/>
+      <c r="B514" s="1"/>
+      <c r="C514" s="1"/>
     </row>
     <row r="515" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A515" s="1">
-        <v>514</v>
-      </c>
-      <c r="B515" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="C515" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A515" s="1"/>
+      <c r="B515" s="1"/>
+      <c r="C515" s="1"/>
     </row>
     <row r="516" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A516" s="1">
-        <v>515</v>
-      </c>
-      <c r="B516" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C516" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A516" s="1"/>
+      <c r="B516" s="1"/>
+      <c r="C516" s="1"/>
     </row>
     <row r="517" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A517" s="1">
-        <v>516</v>
-      </c>
-      <c r="B517" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="C517" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A517" s="1"/>
+      <c r="B517" s="1"/>
+      <c r="C517" s="1"/>
     </row>
     <row r="518" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A518" s="1">
-        <v>517</v>
-      </c>
-      <c r="B518" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="C518" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A518" s="1"/>
+      <c r="B518" s="1"/>
+      <c r="C518" s="1"/>
     </row>
     <row r="519" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A519" s="1">
-        <v>518</v>
-      </c>
-      <c r="B519" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C519" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A519" s="1"/>
+      <c r="B519" s="1"/>
+      <c r="C519" s="1"/>
     </row>
     <row r="520" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A520" s="1">
-        <v>519</v>
-      </c>
-      <c r="B520" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C520" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A520" s="1"/>
+      <c r="B520" s="1"/>
+      <c r="C520" s="1"/>
     </row>
     <row r="521" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A521" s="1">
-        <v>520</v>
-      </c>
-      <c r="B521" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="C521" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A521" s="1"/>
+      <c r="B521" s="1"/>
+      <c r="C521" s="1"/>
     </row>
     <row r="522" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A522" s="1">
-        <v>521</v>
-      </c>
-      <c r="B522" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="C522" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A522" s="1"/>
+      <c r="B522" s="1"/>
+      <c r="C522" s="1"/>
     </row>
     <row r="523" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A523" s="1">
-        <v>522</v>
-      </c>
-      <c r="B523" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="C523" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A523" s="1"/>
+      <c r="B523" s="1"/>
+      <c r="C523" s="1"/>
     </row>
     <row r="524" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A524" s="1">
-        <v>523</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A524" s="1"/>
+      <c r="B524" s="1"/>
+      <c r="C524" s="1"/>
     </row>
     <row r="525" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A525" s="1">
-        <v>524</v>
-      </c>
-      <c r="B525" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="C525" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A525" s="1"/>
+      <c r="B525" s="1"/>
+      <c r="C525" s="1"/>
     </row>
     <row r="526" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A526" s="1">
-        <v>525</v>
-      </c>
-      <c r="B526" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="C526" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A526" s="1"/>
+      <c r="B526" s="1"/>
+      <c r="C526" s="1"/>
     </row>
     <row r="527" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A527" s="1">
-        <v>526</v>
-      </c>
-      <c r="B527" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="C527" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A527" s="1"/>
+      <c r="B527" s="1"/>
+      <c r="C527" s="1"/>
     </row>
     <row r="528" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A528" s="1">
-        <v>527</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="C528" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A528" s="1"/>
+      <c r="B528" s="1"/>
+      <c r="C528" s="1"/>
     </row>
     <row r="529" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A529" s="1">
-        <v>528</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C529" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A529" s="1"/>
+      <c r="B529" s="1"/>
+      <c r="C529" s="1"/>
     </row>
     <row r="530" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A530" s="1">
-        <v>529</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="C530" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A530" s="1"/>
+      <c r="B530" s="1"/>
+      <c r="C530" s="1"/>
     </row>
     <row r="531" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A531" s="1">
-        <v>530</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A531" s="1"/>
+      <c r="B531" s="1"/>
+      <c r="C531" s="1"/>
     </row>
     <row r="532" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A532" s="1">
-        <v>531</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="C532" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A532" s="1"/>
+      <c r="B532" s="1"/>
+      <c r="C532" s="1"/>
     </row>
     <row r="533" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A533" s="1">
-        <v>532</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C533" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A533" s="1"/>
+      <c r="B533" s="1"/>
+      <c r="C533" s="1"/>
     </row>
     <row r="534" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A534" s="1">
-        <v>533</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C534" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A534" s="1"/>
+      <c r="B534" s="1"/>
+      <c r="C534" s="1"/>
     </row>
     <row r="535" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A535" s="1">
-        <v>534</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="C535" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A535" s="1"/>
+      <c r="B535" s="1"/>
+      <c r="C535" s="1"/>
     </row>
     <row r="536" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A536" s="1">
-        <v>535</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="C536" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A536" s="1"/>
+      <c r="B536" s="1"/>
+      <c r="C536" s="1"/>
     </row>
     <row r="537" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A537" s="1">
-        <v>536</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A537" s="1"/>
+      <c r="B537" s="1"/>
+      <c r="C537" s="1"/>
     </row>
     <row r="538" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A538" s="1">
-        <v>537</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="C538" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A538" s="1"/>
+      <c r="B538" s="1"/>
+      <c r="C538" s="1"/>
     </row>
     <row r="539" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A539" s="1">
-        <v>538</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="C539" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A539" s="1"/>
+      <c r="B539" s="1"/>
+      <c r="C539" s="1"/>
     </row>
     <row r="540" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A540" s="1">
-        <v>539</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="C540" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A540" s="1"/>
+      <c r="B540" s="1"/>
+      <c r="C540" s="1"/>
     </row>
     <row r="541" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A541" s="1">
-        <v>540</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C541" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A541" s="1"/>
+      <c r="B541" s="1"/>
+      <c r="C541" s="1"/>
     </row>
     <row r="542" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A542" s="1">
-        <v>541</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C542" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A542" s="1"/>
+      <c r="B542" s="1"/>
+      <c r="C542" s="1"/>
     </row>
     <row r="543" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A543" s="1">
-        <v>542</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="C543" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A543" s="1"/>
+      <c r="B543" s="1"/>
+      <c r="C543" s="1"/>
     </row>
     <row r="544" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A544" s="1">
-        <v>543</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="C544" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A544" s="1"/>
+      <c r="B544" s="1"/>
+      <c r="C544" s="1"/>
     </row>
     <row r="545" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A545" s="1">
-        <v>544</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="C545" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A545" s="1"/>
+      <c r="B545" s="1"/>
+      <c r="C545" s="1"/>
     </row>
     <row r="546" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A546" s="1">
-        <v>545</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C546" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A546" s="1"/>
+      <c r="B546" s="1"/>
+      <c r="C546" s="1"/>
     </row>
     <row r="547" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A547" s="1">
-        <v>546</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="C547" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A547" s="1"/>
+      <c r="B547" s="1"/>
+      <c r="C547" s="1"/>
     </row>
     <row r="548" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A548" s="1">
-        <v>547</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="C548" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A548" s="1"/>
+      <c r="B548" s="1"/>
+      <c r="C548" s="1"/>
     </row>
     <row r="549" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A549" s="1">
-        <v>548</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C549" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A549" s="1"/>
+      <c r="B549" s="1"/>
+      <c r="C549" s="1"/>
     </row>
     <row r="550" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A550" s="1">
-        <v>549</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C550" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A550" s="1"/>
+      <c r="B550" s="1"/>
+      <c r="C550" s="1"/>
     </row>
     <row r="551" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A551" s="1">
-        <v>550</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="C551" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A551" s="1"/>
+      <c r="B551" s="1"/>
+      <c r="C551" s="1"/>
     </row>
     <row r="552" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A552" s="1">
-        <v>551</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="C552" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A552" s="1"/>
+      <c r="B552" s="1"/>
+      <c r="C552" s="1"/>
     </row>
     <row r="553" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A553" s="1">
-        <v>552</v>
-      </c>
-      <c r="B553" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="C553" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A553" s="1"/>
+      <c r="B553" s="1"/>
+      <c r="C553" s="1"/>
     </row>
     <row r="554" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A554" s="1">
-        <v>553</v>
-      </c>
-      <c r="B554" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C554" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A554" s="1"/>
+      <c r="B554" s="1"/>
+      <c r="C554" s="1"/>
     </row>
     <row r="555" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A555" s="1">
-        <v>554</v>
-      </c>
-      <c r="B555" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="C555" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A555" s="1"/>
+      <c r="B555" s="1"/>
+      <c r="C555" s="1"/>
     </row>
     <row r="556" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A556" s="1">
-        <v>555</v>
-      </c>
-      <c r="B556" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="C556" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A556" s="1"/>
+      <c r="B556" s="1"/>
+      <c r="C556" s="1"/>
     </row>
     <row r="557" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A557" s="1">
-        <v>556</v>
-      </c>
-      <c r="B557" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C557" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A557" s="1"/>
+      <c r="B557" s="1"/>
+      <c r="C557" s="1"/>
     </row>
     <row r="558" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A558" s="1">
-        <v>557</v>
-      </c>
-      <c r="B558" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C558" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A558" s="1"/>
+      <c r="B558" s="1"/>
+      <c r="C558" s="1"/>
     </row>
     <row r="559" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A559" s="1">
-        <v>558</v>
-      </c>
-      <c r="B559" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="C559" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A559" s="1"/>
+      <c r="B559" s="1"/>
+      <c r="C559" s="1"/>
     </row>
     <row r="560" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A560" s="1">
-        <v>559</v>
-      </c>
-      <c r="B560" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="C560" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A560" s="1"/>
+      <c r="B560" s="1"/>
+      <c r="C560" s="1"/>
     </row>
     <row r="561" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A561" s="1">
-        <v>560</v>
-      </c>
-      <c r="B561" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="C561" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A561" s="1"/>
+      <c r="B561" s="1"/>
+      <c r="C561" s="1"/>
     </row>
     <row r="562" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A562" s="1">
-        <v>561</v>
-      </c>
-      <c r="B562" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="C562" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A562" s="1"/>
+      <c r="B562" s="1"/>
+      <c r="C562" s="1"/>
     </row>
     <row r="563" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A563" s="1">
-        <v>562</v>
-      </c>
-      <c r="B563" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C563" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A563" s="1"/>
+      <c r="B563" s="1"/>
+      <c r="C563" s="1"/>
     </row>
     <row r="564" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A564" s="1">
-        <v>563</v>
-      </c>
-      <c r="B564" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C564" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A564" s="1"/>
+      <c r="B564" s="1"/>
+      <c r="C564" s="1"/>
     </row>
     <row r="565" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A565" s="1">
-        <v>564</v>
-      </c>
-      <c r="B565" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="C565" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A565" s="1"/>
+      <c r="B565" s="1"/>
+      <c r="C565" s="1"/>
     </row>
     <row r="566" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A566" s="1">
-        <v>565</v>
-      </c>
-      <c r="B566" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C566" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A566" s="1"/>
+      <c r="B566" s="1"/>
+      <c r="C566" s="1"/>
     </row>
     <row r="567" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A567" s="1">
-        <v>566</v>
-      </c>
-      <c r="B567" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="C567" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A567" s="1"/>
+      <c r="B567" s="1"/>
+      <c r="C567" s="1"/>
     </row>
     <row r="568" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A568" s="1">
-        <v>567</v>
-      </c>
-      <c r="B568" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="C568" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A568" s="1"/>
+      <c r="B568" s="1"/>
+      <c r="C568" s="1"/>
     </row>
     <row r="569" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A569" s="1">
-        <v>568</v>
-      </c>
-      <c r="B569" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="C569" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A569" s="1"/>
+      <c r="B569" s="1"/>
+      <c r="C569" s="1"/>
     </row>
     <row r="570" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A570" s="1">
-        <v>569</v>
-      </c>
-      <c r="B570" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C570" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A570" s="1"/>
+      <c r="B570" s="1"/>
+      <c r="C570" s="1"/>
     </row>
     <row r="571" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A571" s="1">
-        <v>570</v>
-      </c>
-      <c r="B571" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="C571" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A571" s="1"/>
+      <c r="B571" s="1"/>
+      <c r="C571" s="1"/>
     </row>
     <row r="572" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A572" s="1">
-        <v>571</v>
-      </c>
-      <c r="B572" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C572" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A572" s="1"/>
+      <c r="B572" s="1"/>
+      <c r="C572" s="1"/>
     </row>
     <row r="573" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A573" s="1">
-        <v>572</v>
-      </c>
-      <c r="B573" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="C573" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A573" s="1"/>
+      <c r="B573" s="1"/>
+      <c r="C573" s="1"/>
     </row>
     <row r="574" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A574" s="1">
-        <v>573</v>
-      </c>
-      <c r="B574" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="C574" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A574" s="1"/>
+      <c r="B574" s="1"/>
+      <c r="C574" s="1"/>
     </row>
     <row r="575" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A575" s="1">
-        <v>574</v>
-      </c>
-      <c r="B575" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C575" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A575" s="1"/>
+      <c r="B575" s="1"/>
+      <c r="C575" s="1"/>
     </row>
     <row r="576" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A576" s="1">
-        <v>575</v>
-      </c>
-      <c r="B576" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="C576" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A576" s="1"/>
+      <c r="B576" s="1"/>
+      <c r="C576" s="1"/>
     </row>
     <row r="577" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A577" s="1">
-        <v>576</v>
-      </c>
-      <c r="B577" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C577" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A577" s="1"/>
+      <c r="B577" s="1"/>
+      <c r="C577" s="1"/>
     </row>
     <row r="578" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A578" s="1">
-        <v>577</v>
-      </c>
-      <c r="B578" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C578" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A578" s="1"/>
+      <c r="B578" s="1"/>
+      <c r="C578" s="1"/>
     </row>
     <row r="579" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A579" s="1">
-        <v>578</v>
-      </c>
-      <c r="B579" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="C579" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A579" s="1"/>
+      <c r="B579" s="1"/>
+      <c r="C579" s="1"/>
     </row>
     <row r="580" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A580" s="1">
-        <v>579</v>
-      </c>
-      <c r="B580" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="C580" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A580" s="1"/>
+      <c r="B580" s="1"/>
+      <c r="C580" s="1"/>
     </row>
     <row r="581" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A581" s="1">
-        <v>580</v>
-      </c>
-      <c r="B581" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C581" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A581" s="1"/>
+      <c r="B581" s="1"/>
+      <c r="C581" s="1"/>
     </row>
     <row r="582" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A582" s="1">
-        <v>581</v>
-      </c>
-      <c r="B582" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C582" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A582" s="1"/>
+      <c r="B582" s="1"/>
+      <c r="C582" s="1"/>
     </row>
     <row r="583" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A583" s="1">
-        <v>582</v>
-      </c>
-      <c r="B583" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="C583" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A583" s="1"/>
+      <c r="B583" s="1"/>
+      <c r="C583" s="1"/>
     </row>
     <row r="584" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A584" s="1">
-        <v>583</v>
-      </c>
-      <c r="B584" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="C584" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A584" s="1"/>
+      <c r="B584" s="1"/>
+      <c r="C584" s="1"/>
     </row>
     <row r="585" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A585" s="1">
-        <v>584</v>
-      </c>
-      <c r="B585" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="C585" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A585" s="1"/>
+      <c r="B585" s="1"/>
+      <c r="C585" s="1"/>
     </row>
     <row r="586" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A586" s="1">
-        <v>585</v>
-      </c>
-      <c r="B586" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="C586" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A586" s="1"/>
+      <c r="B586" s="1"/>
+      <c r="C586" s="1"/>
     </row>
     <row r="587" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A587" s="1">
-        <v>586</v>
-      </c>
-      <c r="B587" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C587" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A587" s="1"/>
+      <c r="B587" s="1"/>
+      <c r="C587" s="1"/>
     </row>
     <row r="588" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A588" s="1">
-        <v>587</v>
-      </c>
-      <c r="B588" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="C588" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A588" s="1"/>
+      <c r="B588" s="1"/>
+      <c r="C588" s="1"/>
     </row>
     <row r="589" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A589" s="1">
-        <v>588</v>
-      </c>
-      <c r="B589" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="C589" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A589" s="1"/>
+      <c r="B589" s="1"/>
+      <c r="C589" s="1"/>
     </row>
     <row r="590" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A590" s="1">
-        <v>589</v>
-      </c>
-      <c r="B590" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="C590" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A590" s="1"/>
+      <c r="B590" s="1"/>
+      <c r="C590" s="1"/>
     </row>
     <row r="591" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A591" s="1">
-        <v>590</v>
-      </c>
-      <c r="B591" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="C591" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A591" s="1"/>
+      <c r="B591" s="1"/>
+      <c r="C591" s="1"/>
     </row>
     <row r="592" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A592" s="1">
-        <v>591</v>
-      </c>
-      <c r="B592" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="C592" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A592" s="1"/>
+      <c r="B592" s="1"/>
+      <c r="C592" s="1"/>
     </row>
     <row r="593" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A593" s="1">
-        <v>592</v>
-      </c>
-      <c r="B593" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C593" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A593" s="1"/>
+      <c r="B593" s="1"/>
+      <c r="C593" s="1"/>
     </row>
     <row r="594" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A594" s="1">
-        <v>593</v>
-      </c>
-      <c r="B594" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="C594" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A594" s="1"/>
+      <c r="B594" s="1"/>
+      <c r="C594" s="1"/>
     </row>
     <row r="595" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A595" s="1">
-        <v>594</v>
-      </c>
-      <c r="B595" s="1" t="s">
-        <v>598</v>
-      </c>
-      <c r="C595" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A595" s="1"/>
+      <c r="B595" s="1"/>
+      <c r="C595" s="1"/>
     </row>
     <row r="596" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A596" s="1">
-        <v>595</v>
-      </c>
-      <c r="B596" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="C596" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A596" s="1"/>
+      <c r="B596" s="1"/>
+      <c r="C596" s="1"/>
     </row>
     <row r="597" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A597" s="1">
-        <v>596</v>
-      </c>
-      <c r="B597" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C597" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A597" s="1"/>
+      <c r="B597" s="1"/>
+      <c r="C597" s="1"/>
     </row>
     <row r="598" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A598" s="1">
-        <v>597</v>
-      </c>
-      <c r="B598" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C598" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A598" s="1"/>
+      <c r="B598" s="1"/>
+      <c r="C598" s="1"/>
     </row>
     <row r="599" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A599" s="1">
-        <v>598</v>
-      </c>
-      <c r="B599" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="C599" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A599" s="1"/>
+      <c r="B599" s="1"/>
+      <c r="C599" s="1"/>
     </row>
     <row r="600" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A600" s="1">
-        <v>599</v>
-      </c>
-      <c r="B600" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C600" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A600" s="1"/>
+      <c r="B600" s="1"/>
+      <c r="C600" s="1"/>
     </row>
     <row r="601" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A601" s="1">
-        <v>600</v>
-      </c>
-      <c r="B601" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="C601" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A601" s="1"/>
+      <c r="B601" s="1"/>
+      <c r="C601" s="1"/>
     </row>
     <row r="602" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A602" s="1">
-        <v>601</v>
-      </c>
-      <c r="B602" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="C602" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A602" s="1"/>
+      <c r="B602" s="1"/>
+      <c r="C602" s="1"/>
     </row>
     <row r="603" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A603" s="1">
-        <v>602</v>
-      </c>
-      <c r="B603" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="C603" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A603" s="1"/>
+      <c r="B603" s="1"/>
+      <c r="C603" s="1"/>
     </row>
     <row r="604" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A604" s="1">
-        <v>603</v>
-      </c>
-      <c r="B604" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C604" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A604" s="1"/>
+      <c r="B604" s="1"/>
+      <c r="C604" s="1"/>
     </row>
     <row r="605" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A605" s="1">
-        <v>604</v>
-      </c>
-      <c r="B605" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="C605" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A605" s="1"/>
+      <c r="B605" s="1"/>
+      <c r="C605" s="1"/>
     </row>
     <row r="606" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A606" s="1">
-        <v>605</v>
-      </c>
-      <c r="B606" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C606" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A606" s="1"/>
+      <c r="B606" s="1"/>
+      <c r="C606" s="1"/>
     </row>
     <row r="607" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A607" s="1">
-        <v>606</v>
-      </c>
-      <c r="B607" s="1" t="s">
-        <v>610</v>
-      </c>
-      <c r="C607" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A607" s="1"/>
+      <c r="B607" s="1"/>
+      <c r="C607" s="1"/>
     </row>
     <row r="608" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A608" s="1">
-        <v>607</v>
-      </c>
-      <c r="B608" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="C608" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A608" s="1"/>
+      <c r="B608" s="1"/>
+      <c r="C608" s="1"/>
     </row>
     <row r="609" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A609" s="1">
-        <v>608</v>
-      </c>
-      <c r="B609" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="C609" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A609" s="1"/>
+      <c r="B609" s="1"/>
+      <c r="C609" s="1"/>
     </row>
     <row r="610" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A610" s="1">
-        <v>609</v>
-      </c>
-      <c r="B610" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="C610" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A610" s="1"/>
+      <c r="B610" s="1"/>
+      <c r="C610" s="1"/>
     </row>
     <row r="611" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A611" s="1">
-        <v>610</v>
-      </c>
-      <c r="B611" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="C611" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A611" s="1"/>
+      <c r="B611" s="1"/>
+      <c r="C611" s="1"/>
     </row>
     <row r="612" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A612" s="1">
-        <v>611</v>
-      </c>
-      <c r="B612" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C612" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A612" s="1"/>
+      <c r="B612" s="1"/>
+      <c r="C612" s="1"/>
     </row>
     <row r="613" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A613" s="1">
-        <v>612</v>
-      </c>
-      <c r="B613" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="C613" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A613" s="1"/>
+      <c r="B613" s="1"/>
+      <c r="C613" s="1"/>
     </row>
     <row r="614" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A614" s="1">
-        <v>613</v>
-      </c>
-      <c r="B614" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="C614" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A614" s="1"/>
+      <c r="B614" s="1"/>
+      <c r="C614" s="1"/>
     </row>
     <row r="615" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A615" s="1">
-        <v>614</v>
-      </c>
-      <c r="B615" s="1" t="s">
-        <v>618</v>
-      </c>
-      <c r="C615" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A615" s="1"/>
+      <c r="B615" s="1"/>
+      <c r="C615" s="1"/>
     </row>
     <row r="616" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A616" s="1">
-        <v>615</v>
-      </c>
-      <c r="B616" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="C616" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A616" s="1"/>
+      <c r="B616" s="1"/>
+      <c r="C616" s="1"/>
     </row>
     <row r="617" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A617" s="1">
-        <v>616</v>
-      </c>
-      <c r="B617" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C617" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A617" s="1"/>
+      <c r="B617" s="1"/>
+      <c r="C617" s="1"/>
     </row>
     <row r="618" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A618" s="1">
-        <v>617</v>
-      </c>
-      <c r="B618" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="C618" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A618" s="1"/>
+      <c r="B618" s="1"/>
+      <c r="C618" s="1"/>
     </row>
     <row r="619" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A619" s="1">
-        <v>618</v>
-      </c>
-      <c r="B619" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="C619" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A619" s="1"/>
+      <c r="B619" s="1"/>
+      <c r="C619" s="1"/>
     </row>
     <row r="620" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A620" s="1">
-        <v>619</v>
-      </c>
-      <c r="B620" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="C620" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A620" s="1"/>
+      <c r="B620" s="1"/>
+      <c r="C620" s="1"/>
     </row>
     <row r="621" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A621" s="1">
-        <v>620</v>
-      </c>
-      <c r="B621" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="C621" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A621" s="1"/>
+      <c r="B621" s="1"/>
+      <c r="C621" s="1"/>
     </row>
     <row r="622" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A622" s="1">
-        <v>621</v>
-      </c>
-      <c r="B622" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="C622" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A622" s="1"/>
+      <c r="B622" s="1"/>
+      <c r="C622" s="1"/>
     </row>
     <row r="623" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A623" s="1">
-        <v>622</v>
-      </c>
-      <c r="B623" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="C623" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A623" s="1"/>
+      <c r="B623" s="1"/>
+      <c r="C623" s="1"/>
     </row>
     <row r="624" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A624" s="1">
-        <v>623</v>
-      </c>
-      <c r="B624" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="C624" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A624" s="1"/>
+      <c r="B624" s="1"/>
+      <c r="C624" s="1"/>
     </row>
     <row r="625" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A625" s="1">
-        <v>624</v>
-      </c>
-      <c r="B625" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="C625" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A625" s="1"/>
+      <c r="B625" s="1"/>
+      <c r="C625" s="1"/>
     </row>
     <row r="626" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A626" s="1">
-        <v>625</v>
-      </c>
-      <c r="B626" s="1" t="s">
-        <v>629</v>
-      </c>
-      <c r="C626" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A626" s="1"/>
+      <c r="B626" s="1"/>
+      <c r="C626" s="1"/>
     </row>
     <row r="627" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A627" s="1">
-        <v>626</v>
-      </c>
-      <c r="B627" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C627" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A627" s="1"/>
+      <c r="B627" s="1"/>
+      <c r="C627" s="1"/>
     </row>
     <row r="628" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A628" s="1">
-        <v>627</v>
-      </c>
-      <c r="B628" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="C628" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A628" s="1"/>
+      <c r="B628" s="1"/>
+      <c r="C628" s="1"/>
     </row>
     <row r="629" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A629" s="1">
-        <v>628</v>
-      </c>
-      <c r="B629" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="C629" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A629" s="1"/>
+      <c r="B629" s="1"/>
+      <c r="C629" s="1"/>
     </row>
     <row r="630" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A630" s="1">
-        <v>629</v>
-      </c>
-      <c r="B630" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="C630" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A630" s="1"/>
+      <c r="B630" s="1"/>
+      <c r="C630" s="1"/>
     </row>
     <row r="631" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A631" s="1">
-        <v>630</v>
-      </c>
-      <c r="B631" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="C631" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A631" s="1"/>
+      <c r="B631" s="1"/>
+      <c r="C631" s="1"/>
     </row>
     <row r="632" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A632" s="1">
-        <v>631</v>
-      </c>
-      <c r="B632" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="C632" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A632" s="1"/>
+      <c r="B632" s="1"/>
+      <c r="C632" s="1"/>
     </row>
     <row r="633" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A633" s="1">
-        <v>632</v>
-      </c>
-      <c r="B633" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="C633" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A633" s="1"/>
+      <c r="B633" s="1"/>
+      <c r="C633" s="1"/>
     </row>
     <row r="634" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A634" s="1">
-        <v>633</v>
-      </c>
-      <c r="B634" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="C634" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A634" s="1"/>
+      <c r="B634" s="1"/>
+      <c r="C634" s="1"/>
     </row>
     <row r="635" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A635" s="1">
-        <v>634</v>
-      </c>
-      <c r="B635" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="C635" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A635" s="1"/>
+      <c r="B635" s="1"/>
+      <c r="C635" s="1"/>
     </row>
     <row r="636" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A636" s="1">
-        <v>635</v>
-      </c>
-      <c r="B636" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C636" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A636" s="1"/>
+      <c r="B636" s="1"/>
+      <c r="C636" s="1"/>
     </row>
     <row r="637" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A637" s="1">
-        <v>636</v>
-      </c>
-      <c r="B637" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="C637" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A637" s="1"/>
+      <c r="B637" s="1"/>
+      <c r="C637" s="1"/>
     </row>
     <row r="638" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A638" s="1">
-        <v>637</v>
-      </c>
-      <c r="B638" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C638" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A638" s="1"/>
+      <c r="B638" s="1"/>
+      <c r="C638" s="1"/>
     </row>
     <row r="639" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A639" s="1">
-        <v>638</v>
-      </c>
-      <c r="B639" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="C639" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A639" s="1"/>
+      <c r="B639" s="1"/>
+      <c r="C639" s="1"/>
     </row>
     <row r="640" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A640" s="1">
-        <v>639</v>
-      </c>
-      <c r="B640" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C640" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A640" s="1"/>
+      <c r="B640" s="1"/>
+      <c r="C640" s="1"/>
     </row>
     <row r="641" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A641" s="1">
-        <v>640</v>
-      </c>
-      <c r="B641" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="C641" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A641" s="1"/>
+      <c r="B641" s="1"/>
+      <c r="C641" s="1"/>
     </row>
     <row r="642" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A642" s="1">
-        <v>641</v>
-      </c>
-      <c r="B642" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="C642" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A642" s="1"/>
+      <c r="B642" s="1"/>
+      <c r="C642" s="1"/>
     </row>
     <row r="643" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A643" s="1">
-        <v>642</v>
-      </c>
-      <c r="B643" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="C643" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A643" s="1"/>
+      <c r="B643" s="1"/>
+      <c r="C643" s="1"/>
     </row>
     <row r="644" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A644" s="1">
-        <v>643</v>
-      </c>
-      <c r="B644" s="1" t="s">
-        <v>647</v>
-      </c>
-      <c r="C644" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A644" s="1"/>
+      <c r="B644" s="1"/>
+      <c r="C644" s="1"/>
     </row>
     <row r="645" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A645" s="1">
-        <v>644</v>
-      </c>
-      <c r="B645" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="C645" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A645" s="1"/>
+      <c r="B645" s="1"/>
+      <c r="C645" s="1"/>
     </row>
     <row r="646" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A646" s="1">
-        <v>645</v>
-      </c>
-      <c r="B646" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="C646" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A646" s="1"/>
+      <c r="B646" s="1"/>
+      <c r="C646" s="1"/>
     </row>
     <row r="647" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A647" s="1">
-        <v>646</v>
-      </c>
-      <c r="B647" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="C647" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A647" s="1"/>
+      <c r="B647" s="1"/>
+      <c r="C647" s="1"/>
     </row>
     <row r="648" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A648" s="1">
-        <v>647</v>
-      </c>
-      <c r="B648" s="1" t="s">
-        <v>651</v>
-      </c>
-      <c r="C648" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A648" s="1"/>
+      <c r="B648" s="1"/>
+      <c r="C648" s="1"/>
     </row>
     <row r="649" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A649" s="1">
-        <v>648</v>
-      </c>
-      <c r="B649" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="C649" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A649" s="1"/>
+      <c r="B649" s="1"/>
+      <c r="C649" s="1"/>
     </row>
     <row r="650" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A650" s="1">
-        <v>649</v>
-      </c>
-      <c r="B650" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="C650" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A650" s="1"/>
+      <c r="B650" s="1"/>
+      <c r="C650" s="1"/>
     </row>
     <row r="651" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A651" s="1">
-        <v>650</v>
-      </c>
-      <c r="B651" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="C651" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A651" s="1"/>
+      <c r="B651" s="1"/>
+      <c r="C651" s="1"/>
     </row>
     <row r="652" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A652" s="1">
-        <v>651</v>
-      </c>
-      <c r="B652" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="C652" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A652" s="1"/>
+      <c r="B652" s="1"/>
+      <c r="C652" s="1"/>
     </row>
     <row r="653" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A653" s="1">
-        <v>652</v>
-      </c>
-      <c r="B653" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="C653" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A653" s="1"/>
+      <c r="B653" s="1"/>
+      <c r="C653" s="1"/>
     </row>
     <row r="654" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A654" s="1">
-        <v>653</v>
-      </c>
-      <c r="B654" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="C654" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A654" s="1"/>
+      <c r="B654" s="1"/>
+      <c r="C654" s="1"/>
     </row>
     <row r="655" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A655" s="1">
-        <v>654</v>
-      </c>
-      <c r="B655" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="C655" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A655" s="1"/>
+      <c r="B655" s="1"/>
+      <c r="C655" s="1"/>
     </row>
     <row r="656" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A656" s="1">
-        <v>655</v>
-      </c>
-      <c r="B656" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="C656" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A656" s="1"/>
+      <c r="B656" s="1"/>
+      <c r="C656" s="1"/>
     </row>
     <row r="657" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A657" s="1">
-        <v>656</v>
-      </c>
-      <c r="B657" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="C657" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A657" s="1"/>
+      <c r="B657" s="1"/>
+      <c r="C657" s="1"/>
     </row>
     <row r="658" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A658" s="1">
-        <v>657</v>
-      </c>
-      <c r="B658" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="C658" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A658" s="1"/>
+      <c r="B658" s="1"/>
+      <c r="C658" s="1"/>
     </row>
     <row r="659" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A659" s="1">
-        <v>658</v>
-      </c>
-      <c r="B659" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="C659" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A659" s="1"/>
+      <c r="B659" s="1"/>
+      <c r="C659" s="1"/>
     </row>
     <row r="660" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A660" s="1">
-        <v>659</v>
-      </c>
-      <c r="B660" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="C660" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A660" s="1"/>
+      <c r="B660" s="1"/>
+      <c r="C660" s="1"/>
     </row>
     <row r="661" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A661" s="1">
-        <v>660</v>
-      </c>
-      <c r="B661" s="1" t="s">
-        <v>664</v>
-      </c>
-      <c r="C661" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A661" s="1"/>
+      <c r="B661" s="1"/>
+      <c r="C661" s="1"/>
     </row>
     <row r="662" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A662" s="1">
-        <v>661</v>
-      </c>
-      <c r="B662" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="C662" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A662" s="1"/>
+      <c r="B662" s="1"/>
+      <c r="C662" s="1"/>
     </row>
     <row r="663" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A663" s="1">
-        <v>662</v>
-      </c>
-      <c r="B663" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="C663" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A663" s="1"/>
+      <c r="B663" s="1"/>
+      <c r="C663" s="1"/>
     </row>
     <row r="664" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A664" s="1">
-        <v>663</v>
-      </c>
-      <c r="B664" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="C664" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A664" s="1"/>
+      <c r="B664" s="1"/>
+      <c r="C664" s="1"/>
     </row>
     <row r="665" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A665" s="1">
-        <v>664</v>
-      </c>
-      <c r="B665" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="C665" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A665" s="1"/>
+      <c r="B665" s="1"/>
+      <c r="C665" s="1"/>
     </row>
     <row r="666" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A666" s="1">
-        <v>665</v>
-      </c>
-      <c r="B666" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="C666" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A666" s="1"/>
+      <c r="B666" s="1"/>
+      <c r="C666" s="1"/>
     </row>
     <row r="667" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A667" s="1">
-        <v>666</v>
-      </c>
-      <c r="B667" s="1" t="s">
-        <v>670</v>
-      </c>
-      <c r="C667" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A667" s="1"/>
+      <c r="B667" s="1"/>
+      <c r="C667" s="1"/>
     </row>
     <row r="668" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A668" s="1">
-        <v>667</v>
-      </c>
-      <c r="B668" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="C668" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A668" s="1"/>
+      <c r="B668" s="1"/>
+      <c r="C668" s="1"/>
     </row>
     <row r="669" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A669" s="1">
-        <v>668</v>
-      </c>
-      <c r="B669" s="1" t="s">
-        <v>672</v>
-      </c>
-      <c r="C669" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A669" s="1"/>
+      <c r="B669" s="1"/>
+      <c r="C669" s="1"/>
     </row>
     <row r="670" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A670" s="1">
-        <v>669</v>
-      </c>
-      <c r="B670" s="1" t="s">
-        <v>673</v>
-      </c>
-      <c r="C670" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A670" s="1"/>
+      <c r="B670" s="1"/>
+      <c r="C670" s="1"/>
     </row>
     <row r="671" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A671" s="1">
-        <v>670</v>
-      </c>
-      <c r="B671" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="C671" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A671" s="1"/>
+      <c r="B671" s="1"/>
+      <c r="C671" s="1"/>
     </row>
     <row r="672" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A672" s="1">
-        <v>671</v>
-      </c>
-      <c r="B672" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="C672" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A672" s="1"/>
+      <c r="B672" s="1"/>
+      <c r="C672" s="1"/>
     </row>
     <row r="673" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A673" s="1">
-        <v>672</v>
-      </c>
-      <c r="B673" s="1" t="s">
-        <v>676</v>
-      </c>
-      <c r="C673" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A673" s="1"/>
+      <c r="B673" s="1"/>
+      <c r="C673" s="1"/>
     </row>
     <row r="674" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A674" s="1">
-        <v>673</v>
-      </c>
-      <c r="B674" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="C674" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A674" s="1"/>
+      <c r="B674" s="1"/>
+      <c r="C674" s="1"/>
     </row>
     <row r="675" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A675" s="1">
-        <v>674</v>
-      </c>
-      <c r="B675" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="C675" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A675" s="1"/>
+      <c r="B675" s="1"/>
+      <c r="C675" s="1"/>
     </row>
     <row r="676" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A676" s="1">
-        <v>675</v>
-      </c>
-      <c r="B676" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="C676" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A676" s="1"/>
+      <c r="B676" s="1"/>
+      <c r="C676" s="1"/>
     </row>
     <row r="677" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A677" s="1">
-        <v>676</v>
-      </c>
-      <c r="B677" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C677" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A677" s="1"/>
+      <c r="B677" s="1"/>
+      <c r="C677" s="1"/>
     </row>
     <row r="678" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A678" s="1">
-        <v>677</v>
-      </c>
-      <c r="B678" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="C678" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A678" s="1"/>
+      <c r="B678" s="1"/>
+      <c r="C678" s="1"/>
     </row>
     <row r="679" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A679" s="1">
-        <v>678</v>
-      </c>
-      <c r="B679" s="1" t="s">
-        <v>682</v>
-      </c>
-      <c r="C679" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A679" s="1"/>
+      <c r="B679" s="1"/>
+      <c r="C679" s="1"/>
     </row>
     <row r="680" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A680" s="1">
-        <v>679</v>
-      </c>
-      <c r="B680" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="C680" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A680" s="1"/>
+      <c r="B680" s="1"/>
+      <c r="C680" s="1"/>
     </row>
     <row r="681" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A681" s="1">
-        <v>680</v>
-      </c>
-      <c r="B681" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="C681" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A681" s="1"/>
+      <c r="B681" s="1"/>
+      <c r="C681" s="1"/>
     </row>
     <row r="682" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A682" s="1">
-        <v>681</v>
-      </c>
-      <c r="B682" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="C682" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A682" s="1"/>
+      <c r="B682" s="1"/>
+      <c r="C682" s="1"/>
     </row>
     <row r="683" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A683" s="1">
-        <v>682</v>
-      </c>
-      <c r="B683" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="C683" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A683" s="1"/>
+      <c r="B683" s="1"/>
+      <c r="C683" s="1"/>
     </row>
     <row r="684" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A684" s="1">
-        <v>683</v>
-      </c>
-      <c r="B684" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="C684" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A684" s="1"/>
+      <c r="B684" s="1"/>
+      <c r="C684" s="1"/>
     </row>
     <row r="685" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A685" s="1">
-        <v>684</v>
-      </c>
-      <c r="B685" s="1" t="s">
-        <v>688</v>
-      </c>
-      <c r="C685" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A685" s="1"/>
+      <c r="B685" s="1"/>
+      <c r="C685" s="1"/>
     </row>
     <row r="686" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A686" s="1">
-        <v>685</v>
-      </c>
-      <c r="B686" s="1" t="s">
-        <v>689</v>
-      </c>
-      <c r="C686" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A686" s="1"/>
+      <c r="B686" s="1"/>
+      <c r="C686" s="1"/>
     </row>
     <row r="687" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A687" s="1">
-        <v>686</v>
-      </c>
-      <c r="B687" s="1" t="s">
-        <v>690</v>
-      </c>
-      <c r="C687" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A687" s="1"/>
+      <c r="B687" s="1"/>
+      <c r="C687" s="1"/>
     </row>
     <row r="688" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A688" s="1">
-        <v>687</v>
-      </c>
-      <c r="B688" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="C688" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A688" s="1"/>
+      <c r="B688" s="1"/>
+      <c r="C688" s="1"/>
     </row>
     <row r="689" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A689" s="1">
-        <v>688</v>
-      </c>
-      <c r="B689" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="C689" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A689" s="1"/>
+      <c r="B689" s="1"/>
+      <c r="C689" s="1"/>
     </row>
     <row r="690" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A690" s="1">
-        <v>689</v>
-      </c>
-      <c r="B690" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="C690" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A690" s="1"/>
+      <c r="B690" s="1"/>
+      <c r="C690" s="1"/>
     </row>
     <row r="691" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A691" s="1">
-        <v>690</v>
-      </c>
-      <c r="B691" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="C691" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A691" s="1"/>
+      <c r="B691" s="1"/>
+      <c r="C691" s="1"/>
     </row>
     <row r="692" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A692" s="1">
-        <v>691</v>
-      </c>
-      <c r="B692" s="1" t="s">
-        <v>695</v>
-      </c>
-      <c r="C692" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A692" s="1"/>
+      <c r="B692" s="1"/>
+      <c r="C692" s="1"/>
     </row>
     <row r="693" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A693" s="1">
-        <v>692</v>
-      </c>
-      <c r="B693" s="1" t="s">
-        <v>696</v>
-      </c>
-      <c r="C693" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A693" s="1"/>
+      <c r="B693" s="1"/>
+      <c r="C693" s="1"/>
     </row>
     <row r="694" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A694" s="1">
-        <v>693</v>
-      </c>
-      <c r="B694" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="C694" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A694" s="1"/>
+      <c r="B694" s="1"/>
+      <c r="C694" s="1"/>
     </row>
     <row r="695" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A695" s="1">
-        <v>694</v>
-      </c>
-      <c r="B695" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="C695" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A695" s="1"/>
+      <c r="B695" s="1"/>
+      <c r="C695" s="1"/>
     </row>
     <row r="696" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A696" s="1">
-        <v>695</v>
-      </c>
-      <c r="B696" s="1" t="s">
-        <v>699</v>
-      </c>
-      <c r="C696" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A696" s="1"/>
+      <c r="B696" s="1"/>
+      <c r="C696" s="1"/>
     </row>
     <row r="697" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A697" s="1">
-        <v>696</v>
-      </c>
-      <c r="B697" s="1" t="s">
-        <v>700</v>
-      </c>
-      <c r="C697" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A697" s="1"/>
+      <c r="B697" s="1"/>
+      <c r="C697" s="1"/>
     </row>
     <row r="698" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A698" s="1">
-        <v>697</v>
-      </c>
-      <c r="B698" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="C698" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A698" s="1"/>
+      <c r="B698" s="1"/>
+      <c r="C698" s="1"/>
     </row>
     <row r="699" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A699" s="1">
-        <v>698</v>
-      </c>
-      <c r="B699" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="C699" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A699" s="1"/>
+      <c r="B699" s="1"/>
+      <c r="C699" s="1"/>
     </row>
     <row r="700" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A700" s="1">
-        <v>699</v>
-      </c>
-      <c r="B700" s="1" t="s">
-        <v>703</v>
-      </c>
-      <c r="C700" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A700" s="1"/>
+      <c r="B700" s="1"/>
+      <c r="C700" s="1"/>
     </row>
     <row r="701" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A701" s="1">
-        <v>700</v>
-      </c>
-      <c r="B701" s="1" t="s">
-        <v>704</v>
-      </c>
-      <c r="C701" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A701" s="1"/>
+      <c r="B701" s="1"/>
+      <c r="C701" s="1"/>
     </row>
     <row r="702" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A702" s="1">
-        <v>701</v>
-      </c>
-      <c r="B702" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="C702" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A702" s="1"/>
+      <c r="B702" s="1"/>
+      <c r="C702" s="1"/>
     </row>
     <row r="703" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A703" s="1">
-        <v>702</v>
-      </c>
-      <c r="B703" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="C703" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A703" s="1"/>
+      <c r="B703" s="1"/>
+      <c r="C703" s="1"/>
     </row>
     <row r="704" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A704" s="1">
-        <v>703</v>
-      </c>
-      <c r="B704" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="C704" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A704" s="1"/>
+      <c r="B704" s="1"/>
+      <c r="C704" s="1"/>
     </row>
     <row r="705" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A705" s="1">
-        <v>704</v>
-      </c>
-      <c r="B705" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="C705" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A705" s="1"/>
+      <c r="B705" s="1"/>
+      <c r="C705" s="1"/>
     </row>
     <row r="706" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A706" s="1">
-        <v>705</v>
-      </c>
-      <c r="B706" s="1" t="s">
-        <v>709</v>
-      </c>
-      <c r="C706" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A706" s="1"/>
+      <c r="B706" s="1"/>
+      <c r="C706" s="1"/>
     </row>
     <row r="707" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A707" s="1">
-        <v>706</v>
-      </c>
-      <c r="B707" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="C707" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A707" s="1"/>
+      <c r="B707" s="1"/>
+      <c r="C707" s="1"/>
     </row>
     <row r="708" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A708" s="1">
-        <v>707</v>
-      </c>
-      <c r="B708" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="C708" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A708" s="1"/>
+      <c r="B708" s="1"/>
+      <c r="C708" s="1"/>
     </row>
     <row r="709" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A709" s="1">
-        <v>708</v>
-      </c>
-      <c r="B709" s="1" t="s">
-        <v>712</v>
-      </c>
-      <c r="C709" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A709" s="1"/>
+      <c r="B709" s="1"/>
+      <c r="C709" s="1"/>
     </row>
     <row r="710" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A710" s="1">
-        <v>709</v>
-      </c>
-      <c r="B710" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="C710" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A710" s="1"/>
+      <c r="B710" s="1"/>
+      <c r="C710" s="1"/>
     </row>
     <row r="711" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A711" s="1">
-        <v>710</v>
-      </c>
-      <c r="B711" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="C711" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A711" s="1"/>
+      <c r="B711" s="1"/>
+      <c r="C711" s="1"/>
     </row>
     <row r="712" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A712" s="1">
-        <v>711</v>
-      </c>
-      <c r="B712" s="1" t="s">
-        <v>715</v>
-      </c>
-      <c r="C712" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A712" s="1"/>
+      <c r="B712" s="1"/>
+      <c r="C712" s="1"/>
     </row>
     <row r="713" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A713" s="1">
-        <v>712</v>
-      </c>
-      <c r="B713" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="C713" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A713" s="1"/>
+      <c r="B713" s="1"/>
+      <c r="C713" s="1"/>
     </row>
     <row r="714" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A714" s="1">
-        <v>713</v>
-      </c>
-      <c r="B714" s="1" t="s">
-        <v>717</v>
-      </c>
-      <c r="C714" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A714" s="1"/>
+      <c r="B714" s="1"/>
+      <c r="C714" s="1"/>
     </row>
     <row r="715" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A715" s="1">
-        <v>714</v>
-      </c>
-      <c r="B715" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="C715" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A715" s="1"/>
+      <c r="B715" s="1"/>
+      <c r="C715" s="1"/>
     </row>
     <row r="716" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A716" s="1">
-        <v>715</v>
-      </c>
-      <c r="B716" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="C716" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A716" s="1"/>
+      <c r="B716" s="1"/>
+      <c r="C716" s="1"/>
     </row>
     <row r="717" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A717" s="1">
-        <v>716</v>
-      </c>
-      <c r="B717" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="C717" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A717" s="1"/>
+      <c r="B717" s="1"/>
+      <c r="C717" s="1"/>
     </row>
     <row r="718" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A718" s="1">
-        <v>717</v>
-      </c>
-      <c r="B718" s="1" t="s">
-        <v>721</v>
-      </c>
-      <c r="C718" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A718" s="1"/>
+      <c r="B718" s="1"/>
+      <c r="C718" s="1"/>
     </row>
     <row r="719" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A719" s="1">
-        <v>718</v>
-      </c>
-      <c r="B719" s="1" t="s">
-        <v>722</v>
-      </c>
-      <c r="C719" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A719" s="1"/>
+      <c r="B719" s="1"/>
+      <c r="C719" s="1"/>
     </row>
     <row r="720" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A720" s="1">
-        <v>719</v>
-      </c>
-      <c r="B720" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="C720" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A720" s="1"/>
+      <c r="B720" s="1"/>
+      <c r="C720" s="1"/>
     </row>
     <row r="721" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A721" s="1">
-        <v>720</v>
-      </c>
-      <c r="B721" s="1" t="s">
-        <v>724</v>
-      </c>
-      <c r="C721" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A721" s="1"/>
+      <c r="B721" s="1"/>
+      <c r="C721" s="1"/>
     </row>
     <row r="722" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A722" s="1">
-        <v>721</v>
-      </c>
-      <c r="B722" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="C722" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A722" s="1"/>
+      <c r="B722" s="1"/>
+      <c r="C722" s="1"/>
     </row>
     <row r="723" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A723" s="1">
-        <v>722</v>
-      </c>
-      <c r="B723" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="C723" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A723" s="1"/>
+      <c r="B723" s="1"/>
+      <c r="C723" s="1"/>
     </row>
     <row r="724" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A724" s="1">
-        <v>723</v>
-      </c>
-      <c r="B724" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="C724" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A724" s="1"/>
+      <c r="B724" s="1"/>
+      <c r="C724" s="1"/>
     </row>
     <row r="725" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A725" s="1">
-        <v>724</v>
-      </c>
-      <c r="B725" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="C725" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A725" s="1"/>
+      <c r="B725" s="1"/>
+      <c r="C725" s="1"/>
     </row>
     <row r="726" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A726" s="1">
-        <v>725</v>
-      </c>
-      <c r="B726" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="C726" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A726" s="1"/>
+      <c r="B726" s="1"/>
+      <c r="C726" s="1"/>
     </row>
     <row r="727" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A727" s="1">
-        <v>726</v>
-      </c>
-      <c r="B727" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="C727" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A727" s="1"/>
+      <c r="B727" s="1"/>
+      <c r="C727" s="1"/>
     </row>
     <row r="728" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A728" s="1">
-        <v>727</v>
-      </c>
-      <c r="B728" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="C728" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A728" s="1"/>
+      <c r="B728" s="1"/>
+      <c r="C728" s="1"/>
     </row>
     <row r="729" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A729" s="1">
-        <v>728</v>
-      </c>
-      <c r="B729" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="C729" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A729" s="1"/>
+      <c r="B729" s="1"/>
+      <c r="C729" s="1"/>
     </row>
     <row r="730" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A730" s="1">
-        <v>729</v>
-      </c>
-      <c r="B730" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="C730" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A730" s="1"/>
+      <c r="B730" s="1"/>
+      <c r="C730" s="1"/>
     </row>
     <row r="731" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A731" s="1">
-        <v>730</v>
-      </c>
-      <c r="B731" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="C731" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A731" s="1"/>
+      <c r="B731" s="1"/>
+      <c r="C731" s="1"/>
     </row>
     <row r="732" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A732" s="1">
-        <v>731</v>
-      </c>
-      <c r="B732" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="C732" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A732" s="1"/>
+      <c r="B732" s="1"/>
+      <c r="C732" s="1"/>
     </row>
     <row r="733" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A733" s="1">
-        <v>732</v>
-      </c>
-      <c r="B733" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="C733" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A733" s="1"/>
+      <c r="B733" s="1"/>
+      <c r="C733" s="1"/>
     </row>
     <row r="734" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A734" s="1">
-        <v>733</v>
-      </c>
-      <c r="B734" s="1" t="s">
-        <v>737</v>
-      </c>
-      <c r="C734" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A734" s="1"/>
+      <c r="B734" s="1"/>
+      <c r="C734" s="1"/>
     </row>
     <row r="735" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A735" s="1">
-        <v>734</v>
-      </c>
-      <c r="B735" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="C735" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A735" s="1"/>
+      <c r="B735" s="1"/>
+      <c r="C735" s="1"/>
     </row>
     <row r="736" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A736" s="1">
-        <v>735</v>
-      </c>
-      <c r="B736" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="C736" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A736" s="1"/>
+      <c r="B736" s="1"/>
+      <c r="C736" s="1"/>
     </row>
     <row r="737" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A737" s="1">
-        <v>736</v>
-      </c>
-      <c r="B737" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="C737" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A737" s="1"/>
+      <c r="B737" s="1"/>
+      <c r="C737" s="1"/>
     </row>
     <row r="738" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A738" s="1">
-        <v>737</v>
-      </c>
-      <c r="B738" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C738" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A738" s="1"/>
+      <c r="B738" s="1"/>
+      <c r="C738" s="1"/>
     </row>
     <row r="739" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A739" s="1">
-        <v>738</v>
-      </c>
-      <c r="B739" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="C739" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A739" s="1"/>
+      <c r="B739" s="1"/>
+      <c r="C739" s="1"/>
     </row>
     <row r="740" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A740" s="1">
-        <v>739</v>
-      </c>
-      <c r="B740" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="C740" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A740" s="1"/>
+      <c r="B740" s="1"/>
+      <c r="C740" s="1"/>
     </row>
     <row r="741" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A741" s="1">
-        <v>740</v>
-      </c>
-      <c r="B741" s="1" t="s">
-        <v>744</v>
-      </c>
-      <c r="C741" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A741" s="1"/>
+      <c r="B741" s="1"/>
+      <c r="C741" s="1"/>
     </row>
     <row r="742" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A742" s="1">
-        <v>741</v>
-      </c>
-      <c r="B742" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="C742" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A742" s="1"/>
+      <c r="B742" s="1"/>
+      <c r="C742" s="1"/>
     </row>
     <row r="743" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A743" s="1">
-        <v>742</v>
-      </c>
-      <c r="B743" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="C743" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A743" s="1"/>
+      <c r="B743" s="1"/>
+      <c r="C743" s="1"/>
     </row>
     <row r="744" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A744" s="1">
-        <v>743</v>
-      </c>
-      <c r="B744" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="C744" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A744" s="1"/>
+      <c r="B744" s="1"/>
+      <c r="C744" s="1"/>
     </row>
     <row r="745" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A745" s="1">
-        <v>744</v>
-      </c>
-      <c r="B745" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="C745" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A745" s="1"/>
+      <c r="B745" s="1"/>
+      <c r="C745" s="1"/>
     </row>
     <row r="746" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A746" s="1">
-        <v>745</v>
-      </c>
-      <c r="B746" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="C746" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A746" s="1"/>
+      <c r="B746" s="1"/>
+      <c r="C746" s="1"/>
     </row>
     <row r="747" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A747" s="1">
-        <v>746</v>
-      </c>
-      <c r="B747" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="C747" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A747" s="1"/>
+      <c r="B747" s="1"/>
+      <c r="C747" s="1"/>
     </row>
     <row r="748" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A748" s="1">
-        <v>747</v>
-      </c>
-      <c r="B748" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="C748" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A748" s="1"/>
+      <c r="B748" s="1"/>
+      <c r="C748" s="1"/>
     </row>
     <row r="749" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A749" s="1">
-        <v>748</v>
-      </c>
-      <c r="B749" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="C749" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A749" s="1"/>
+      <c r="B749" s="1"/>
+      <c r="C749" s="1"/>
     </row>
     <row r="750" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A750" s="1">
-        <v>749</v>
-      </c>
-      <c r="B750" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="C750" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A750" s="1"/>
+      <c r="B750" s="1"/>
+      <c r="C750" s="1"/>
     </row>
     <row r="751" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A751" s="1">
-        <v>750</v>
-      </c>
-      <c r="B751" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="C751" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A751" s="1"/>
+      <c r="B751" s="1"/>
+      <c r="C751" s="1"/>
     </row>
     <row r="752" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A752" s="1">
-        <v>751</v>
-      </c>
-      <c r="B752" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="C752" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A752" s="1"/>
+      <c r="B752" s="1"/>
+      <c r="C752" s="1"/>
     </row>
     <row r="753" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A753" s="1">
-        <v>752</v>
-      </c>
-      <c r="B753" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="C753" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A753" s="1"/>
+      <c r="B753" s="1"/>
+      <c r="C753" s="1"/>
     </row>
     <row r="754" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A754" s="1">
-        <v>753</v>
-      </c>
-      <c r="B754" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="C754" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A754" s="1"/>
+      <c r="B754" s="1"/>
+      <c r="C754" s="1"/>
     </row>
     <row r="755" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A755" s="1">
-        <v>754</v>
-      </c>
-      <c r="B755" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="C755" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A755" s="1"/>
+      <c r="B755" s="1"/>
+      <c r="C755" s="1"/>
     </row>
     <row r="756" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A756" s="1">
-        <v>755</v>
-      </c>
-      <c r="B756" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="C756" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A756" s="1"/>
+      <c r="B756" s="1"/>
+      <c r="C756" s="1"/>
     </row>
     <row r="757" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A757" s="1">
-        <v>756</v>
-      </c>
-      <c r="B757" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="C757" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A757" s="1"/>
+      <c r="B757" s="1"/>
+      <c r="C757" s="1"/>
     </row>
     <row r="758" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A758" s="1">
-        <v>757</v>
-      </c>
-      <c r="B758" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="C758" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A758" s="1"/>
+      <c r="B758" s="1"/>
+      <c r="C758" s="1"/>
     </row>
     <row r="759" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A759" s="1">
-        <v>758</v>
-      </c>
-      <c r="B759" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="C759" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A759" s="1"/>
+      <c r="B759" s="1"/>
+      <c r="C759" s="1"/>
     </row>
     <row r="760" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A760" s="1">
-        <v>759</v>
-      </c>
-      <c r="B760" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="C760" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A760" s="1"/>
+      <c r="B760" s="1"/>
+      <c r="C760" s="1"/>
     </row>
     <row r="761" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A761" s="1">
-        <v>760</v>
-      </c>
-      <c r="B761" s="1" t="s">
-        <v>764</v>
-      </c>
-      <c r="C761" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A761" s="1"/>
+      <c r="B761" s="1"/>
+      <c r="C761" s="1"/>
     </row>
     <row r="762" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A762" s="1">
-        <v>761</v>
-      </c>
-      <c r="B762" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="C762" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A762" s="1"/>
+      <c r="B762" s="1"/>
+      <c r="C762" s="1"/>
     </row>
     <row r="763" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A763" s="1">
-        <v>762</v>
-      </c>
-      <c r="B763" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="C763" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A763" s="1"/>
+      <c r="B763" s="1"/>
+      <c r="C763" s="1"/>
     </row>
     <row r="764" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A764" s="1">
-        <v>763</v>
-      </c>
-      <c r="B764" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="C764" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A764" s="1"/>
+      <c r="B764" s="1"/>
+      <c r="C764" s="1"/>
     </row>
     <row r="765" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A765" s="1">
-        <v>764</v>
-      </c>
-      <c r="B765" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="C765" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A765" s="1"/>
+      <c r="B765" s="1"/>
+      <c r="C765" s="1"/>
     </row>
     <row r="766" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A766" s="1">
-        <v>765</v>
-      </c>
-      <c r="B766" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="C766" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A766" s="1"/>
+      <c r="B766" s="1"/>
+      <c r="C766" s="1"/>
     </row>
     <row r="767" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A767" s="1">
-        <v>766</v>
-      </c>
-      <c r="B767" s="1" t="s">
-        <v>770</v>
-      </c>
-      <c r="C767" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A767" s="1"/>
+      <c r="B767" s="1"/>
+      <c r="C767" s="1"/>
     </row>
     <row r="768" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A768" s="1">
-        <v>767</v>
-      </c>
-      <c r="B768" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="C768" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A768" s="1"/>
+      <c r="B768" s="1"/>
+      <c r="C768" s="1"/>
     </row>
     <row r="769" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A769" s="1">
-        <v>768</v>
-      </c>
-      <c r="B769" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="C769" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A769" s="1"/>
+      <c r="B769" s="1"/>
+      <c r="C769" s="1"/>
     </row>
     <row r="770" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A770" s="1">
-        <v>769</v>
-      </c>
-      <c r="B770" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="C770" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A770" s="1"/>
+      <c r="B770" s="1"/>
+      <c r="C770" s="1"/>
     </row>
     <row r="771" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A771" s="1">
-        <v>770</v>
-      </c>
-      <c r="B771" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="C771" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A771" s="1"/>
+      <c r="B771" s="1"/>
+      <c r="C771" s="1"/>
     </row>
     <row r="772" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A772" s="1">
-        <v>771</v>
-      </c>
-      <c r="B772" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="C772" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A772" s="1"/>
+      <c r="B772" s="1"/>
+      <c r="C772" s="1"/>
     </row>
     <row r="773" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A773" s="1">
-        <v>772</v>
-      </c>
-      <c r="B773" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="C773" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A773" s="1"/>
+      <c r="B773" s="1"/>
+      <c r="C773" s="1"/>
     </row>
     <row r="774" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A774" s="1">
-        <v>773</v>
-      </c>
-      <c r="B774" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="C774" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A774" s="1"/>
+      <c r="B774" s="1"/>
+      <c r="C774" s="1"/>
     </row>
     <row r="775" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A775" s="1">
-        <v>774</v>
-      </c>
-      <c r="B775" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="C775" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A775" s="1"/>
+      <c r="B775" s="1"/>
+      <c r="C775" s="1"/>
     </row>
     <row r="776" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A776" s="1">
-        <v>775</v>
-      </c>
-      <c r="B776" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="C776" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A776" s="1"/>
+      <c r="B776" s="1"/>
+      <c r="C776" s="1"/>
     </row>
     <row r="777" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A777" s="1">
-        <v>776</v>
-      </c>
-      <c r="B777" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="C777" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A777" s="1"/>
+      <c r="B777" s="1"/>
+      <c r="C777" s="1"/>
     </row>
     <row r="778" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A778" s="1">
-        <v>777</v>
-      </c>
-      <c r="B778" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="C778" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A778" s="1"/>
+      <c r="B778" s="1"/>
+      <c r="C778" s="1"/>
     </row>
     <row r="779" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A779" s="1">
-        <v>778</v>
-      </c>
-      <c r="B779" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="C779" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A779" s="1"/>
+      <c r="B779" s="1"/>
+      <c r="C779" s="1"/>
     </row>
     <row r="780" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A780" s="1">
-        <v>779</v>
-      </c>
-      <c r="B780" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="C780" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A780" s="1"/>
+      <c r="B780" s="1"/>
+      <c r="C780" s="1"/>
     </row>
     <row r="781" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A781" s="1">
-        <v>780</v>
-      </c>
-      <c r="B781" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="C781" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A781" s="1"/>
+      <c r="B781" s="1"/>
+      <c r="C781" s="1"/>
     </row>
     <row r="782" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A782" s="1">
-        <v>781</v>
-      </c>
-      <c r="B782" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="C782" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A782" s="1"/>
+      <c r="B782" s="1"/>
+      <c r="C782" s="1"/>
     </row>
     <row r="783" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A783" s="1">
-        <v>782</v>
-      </c>
-      <c r="B783" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="C783" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A783" s="1"/>
+      <c r="B783" s="1"/>
+      <c r="C783" s="1"/>
     </row>
     <row r="784" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A784" s="1">
-        <v>783</v>
-      </c>
-      <c r="B784" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="C784" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A784" s="1"/>
+      <c r="B784" s="1"/>
+      <c r="C784" s="1"/>
     </row>
     <row r="785" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A785" s="1">
-        <v>784</v>
-      </c>
-      <c r="B785" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="C785" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A785" s="1"/>
+      <c r="B785" s="1"/>
+      <c r="C785" s="1"/>
     </row>
     <row r="786" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A786" s="1">
-        <v>785</v>
-      </c>
-      <c r="B786" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="C786" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A786" s="1"/>
+      <c r="B786" s="1"/>
+      <c r="C786" s="1"/>
     </row>
     <row r="787" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A787" s="1">
-        <v>786</v>
-      </c>
-      <c r="B787" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="C787" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A787" s="1"/>
+      <c r="B787" s="1"/>
+      <c r="C787" s="1"/>
     </row>
     <row r="788" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A788" s="1">
-        <v>787</v>
-      </c>
-      <c r="B788" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="C788" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A788" s="1"/>
+      <c r="B788" s="1"/>
+      <c r="C788" s="1"/>
     </row>
     <row r="789" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A789" s="1">
-        <v>788</v>
-      </c>
-      <c r="B789" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="C789" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A789" s="1"/>
+      <c r="B789" s="1"/>
+      <c r="C789" s="1"/>
     </row>
     <row r="790" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A790" s="1">
-        <v>789</v>
-      </c>
-      <c r="B790" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="C790" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A790" s="1"/>
+      <c r="B790" s="1"/>
+      <c r="C790" s="1"/>
     </row>
     <row r="791" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A791" s="1">
-        <v>790</v>
-      </c>
-      <c r="B791" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="C791" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A791" s="1"/>
+      <c r="B791" s="1"/>
+      <c r="C791" s="1"/>
     </row>
     <row r="792" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A792" s="1">
-        <v>791</v>
-      </c>
-      <c r="B792" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="C792" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A792" s="1"/>
+      <c r="B792" s="1"/>
+      <c r="C792" s="1"/>
     </row>
     <row r="793" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A793" s="1">
-        <v>792</v>
-      </c>
-      <c r="B793" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="C793" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A793" s="1"/>
+      <c r="B793" s="1"/>
+      <c r="C793" s="1"/>
     </row>
     <row r="794" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A794" s="1">
-        <v>793</v>
-      </c>
-      <c r="B794" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="C794" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A794" s="1"/>
+      <c r="B794" s="1"/>
+      <c r="C794" s="1"/>
     </row>
     <row r="795" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A795" s="1">
-        <v>794</v>
-      </c>
-      <c r="B795" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="C795" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A795" s="1"/>
+      <c r="B795" s="1"/>
+      <c r="C795" s="1"/>
     </row>
     <row r="796" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A796" s="1">
-        <v>795</v>
-      </c>
-      <c r="B796" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="C796" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A796" s="1"/>
+      <c r="B796" s="1"/>
+      <c r="C796" s="1"/>
     </row>
     <row r="797" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A797" s="1">
-        <v>796</v>
-      </c>
-      <c r="B797" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="C797" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A797" s="1"/>
+      <c r="B797" s="1"/>
+      <c r="C797" s="1"/>
     </row>
     <row r="798" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A798" s="1">
-        <v>797</v>
-      </c>
-      <c r="B798" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="C798" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A798" s="1"/>
+      <c r="B798" s="1"/>
+      <c r="C798" s="1"/>
     </row>
     <row r="799" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A799" s="1">
-        <v>798</v>
-      </c>
-      <c r="B799" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="C799" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A799" s="1"/>
+      <c r="B799" s="1"/>
+      <c r="C799" s="1"/>
     </row>
     <row r="800" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A800" s="1">
-        <v>799</v>
-      </c>
-      <c r="B800" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C800" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A800" s="1"/>
+      <c r="B800" s="1"/>
+      <c r="C800" s="1"/>
     </row>
     <row r="801" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A801" s="1"/>
@@ -39996,18 +36889,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -40029,18 +36922,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5076AB0-C6EB-4927-BE84-F0149EAF5898}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE87362-4083-4B73-8FBF-F163F5598C36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5076AB0-C6EB-4927-BE84-F0149EAF5898}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Dataset/DS_800.xlsx
+++ b/Dataset/DS_800.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\SpamCOVID-19\SpamCOVID-19\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\SpamCOVID-19\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="223">
   <si>
     <t>real</t>
   </si>
@@ -698,384 +698,6 @@
     <t>New Zealand’s number of confirmed cases of COVID-19 remains at 1219.​⁣ ​⁣ Yesterday our laboratories processed 4249 tests bringing the total number of tests completed to date to 494481. There were 542 swabs taken in managed isolation and quarantine facilities yesterday.​⁣</t>
   </si>
   <si>
-    <t>INCREASE IN CASES “As we’ve eased the restrictions &amp;amp; continue to increase testing capacity it’s likely we’ll see an increase in #COVID19 cases in Nigeria. Whether that increase continues or not will depend on our collective action” ~ @Chikwe_I #TakeRespinsibility 2/4 https://t.co/hYVKYQ3CQt</t>
-  </si>
-  <si>
-    <t>Sadly there are 11 people with COVID-19 in hospital today. Three are in Auckland City Hospital four in Middlemore three in North Shore and one Waikato.</t>
-  </si>
-  <si>
-    <t>... &amp;amp; goes down over the next 7 days. Available evidence does not indicate any increase in risk of transmission from #COVID cases discharged based on revised discharge criteria which also specifies that such #COVID_19 cases will be advised to isolate themselves at home... (3/4)</t>
-  </si>
-  <si>
-    <t>People of Italy throwing money on the streets because it can't save them from COVID-19.</t>
-  </si>
-  <si>
-    <t>_Israel has found a cure and a vaccine for coronavirus._</t>
-  </si>
-  <si>
-    <t>Nasser Ziberi tested positive for COVID-19</t>
-  </si>
-  <si>
-    <t>State and local health departments use CDC guidance to work with individual clinicians to make decisions about testing for the virus that causes #COVID19. To learn about testing in your community visit your state or local health department website: https://t.co/jcnPAkQpt0. https://t.co/b5obxSO9yq</t>
-  </si>
-  <si>
-    <t>The total number of confirmed cases of COVID-19 is now 1212 which is the number we report to the World Health Organization. ​ ​ There is no one in New Zealand receiving hospital-level care for COVID-19.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: There are 18 States/UTs in the country where the total number of active cases are between 5000 and upto 50000: Secretary @MoHFW_INDIA #StaySafe #IndiaWillWin @ICMRDELHI https://t.co/zgK7dyzkmm</t>
-  </si>
-  <si>
-    <t>The Consumer Affairs Agency in Japan had warned people in early March 2020 about false advertisement boasting products effective in preventing novel coronavirus infections one of which was the #COVID19 disinfection card. #COVID__19 #COVID #COVID_19 #COVIDー19 #COVID19India https://t.co/PBCXOvdo92</t>
-  </si>
-  <si>
-    <t>RT @DDIndialive: West Bengal: Kolkata Metro Rail Authority decides to resume services from September 14 in compliance with standard operati…</t>
-  </si>
-  <si>
-    <t>📢 #NCDCInTheNews ‘NCDC National Reference Laboratory Abuja has been selected as one of 12 laboratories in Africa to provide genomic sequencing capacity for #COVID19 on the continent’ https://t.co/MDwZVw9UVh</t>
-  </si>
-  <si>
-    <t>Official data show that there were more deaths in Italy in 2019 than in 2020.</t>
-  </si>
-  <si>
-    <t>My Goodness is this true? Some1nd2findout. US n mny cointrirs wth strongest Intel agencies cudnt detect d fact? WHO. cheated d world?Is Corona not a Virus but a bacterial infection and patients can cure only in one day? See this video and share it so that d facts can b verified.</t>
-  </si>
-  <si>
-    <t>As we fight the coronavirus pandemic it is also important to fight the infodemic. Do you know fake news and misinformation can bring disharmony to society? Verify before sharing and don't forget to tell the receiver #MainBhiNewschecker https://t.co/geNbF1EVLc</t>
-  </si>
-  <si>
-    <t>245 new cases of #COVID19; 131-Lagos 16-Jigawa 13-Ogun 12-Borno 9-Kaduna 9-Oyo 9-Rivers 9-Ebonyi 8-Kano 7-Kwara 5-Katsina 3-Akwa Ibom 3-Sokoto 2-Bauchi 2-Yobe 1-Anambra 1-Gombe 1-Niger 1-Ondo 1-Plateau 1-FCT 1-Bayelsa 7261 cases of #COVID19 in Nigeria Discharged: 2007 Deaths: 221 https://t.co/ITAGBMdXtB</t>
-  </si>
-  <si>
-    <t>@thephichick @NateSilver538 It's a good question! In this case these numbers are for the preceding 24-hour period. -@alexismadrigal</t>
-  </si>
-  <si>
-    <t>Our total number of confirmed cases is now 1161.⁣ ⁣ Our combined total of confirmed and probable cases is now 1511.⁣ ⁣ The number of recovered cases remains at 1482.⁣ ⁣ There are no additional deaths to report.⁣</t>
-  </si>
-  <si>
-    <t>If you can hold your breath for 10 seconds, without coughing or difficulty in breathing it indicates the absence of COVID-19 infection.</t>
-  </si>
-  <si>
-    <t>555 new cases of #COVID19Nigeria; Lagos-156 Kano-65 Ogun-57 Plateau-54 Oyo-53 Benue-43 FCT-30 Ondo-18 Kaduna-16 Akwa Ibom-13 Gombe-13 Rivers-12 Ekiti-9 Osun-8 Cross River-3 Borno-2 Edo-2 Bayelsa-1 40532 confirmed 17374 discharged 858 deaths https://t.co/ERchB70Hm3</t>
-  </si>
-  <si>
-    <t>Despite the ease of the lockdown starting 4th May it is critical for Nigerians to adhere to these measures to #PreventCOVID19 spread: 🕗Daily curfew from 8pm-6am 😷Mandatory use of mask 🕌Ban on social &amp;amp; religious gatherings 🚎 Restricted inter-state travel Share widely! https://t.co/KzfTJC1Hx7</t>
-  </si>
-  <si>
-    <t>@archillect @BellaDonaModels I got in to the hydroxychloroquine chloroquine discussion with someone today. She feels like it works people recover faster... I dissented and she told me not to believe everything I read. It’s safe because it didn’t kill Trump. I reminded her Trump never had Covid-19.</t>
-  </si>
-  <si>
-    <t>Trump announces Strategic Toilet Roll Stockpile https://t.co/yF7ZKTbFBw #donaldtrump #covid19 #toiletrollhorders #strategicreserve</t>
-  </si>
-  <si>
-    <t>World Not Telling Covid-19 How To Do Its Job But Here’s A List Of People https://t.co/deL1Oyfuoi</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India’s total Recoveries cross 23 lakh. Patients Recovered are more than three times of the Active Cases. Recoveries exceed active cases by more than 16 lakh. https://t.co/DvDGyFtekA https://t.co/FQxZVGwLD9</t>
-  </si>
-  <si>
-    <t>In the path of #HurricaneLaura? Learn your community's evacuation routes and location of emergency shelters. They may be different this year due to #COVID19. https://t.co/fdkY8dTGZe #Laura https://t.co/ppPBU2WPJv</t>
-  </si>
-  <si>
-    <t>2/ Please note that the Government of Nigeria has not validated or approved any treatment for COVID-19. In addition the use of Dexamethasone for COVID-19 treatment has not been validated by @WHO</t>
-  </si>
-  <si>
-    <t>RT @Surgeon_General: #DYK: Cloth face coverings may help prevent people who have #COVID19 but don't know that they have it or aren't exper…</t>
-  </si>
-  <si>
-    <t>The image shows COVID-19 patients and the state of coronavirus isolation ward in Pakistan.</t>
-  </si>
-  <si>
-    <t>10% of U.S. #COVID19 cases are children. https://t.co/ewxED69JbZ</t>
-  </si>
-  <si>
-    <t>We’re grateful for the leadership &amp;amp; support from @AfricaCDC to National Public Health Institutes in Africa including NCDC When the 1st #COVID19 case was confirmed in China @AfricaCDC &amp;amp; @WHOAFRO provided training to lab risk comms IPC &amp;amp; case management personnel in Nigeria https://t.co/uXsOdLHrj8</t>
-  </si>
-  <si>
-    <t>A @WebMD Poll: 27.3% of readers would get a #coronavirus vaccine as soon as it’s available; more than half would in the first year. https://t.co/uJHegnjq0X</t>
-  </si>
-  <si>
-    <t>BREAKING: Nicola Sturgeon has urged Boris Johnson to call a Cobra meeting over rising #coronavirus infections. She said: "Given serious situation across UK I have also asked again that a 4 nations COBR meeting takes place over next 48 hours." More: https://t.co/M9zqxeP5Ur https://t.co/roHnxgCT82</t>
-  </si>
-  <si>
-    <t>New @CDCMMWR finds odds of #COVID19 outbreaks in West Virginia nursing homes are 17x higher in low quality than in high quality nursing homes as rated by @CMSGov. Health depts can use CMS ratings to identify nursing homes at higher risk for COVID-19. https://t.co/he3qBYrUFa https://t.co/u8S6ArTvH3</t>
-  </si>
-  <si>
-    <t>As of today #Bihar districts with the highest active #COVID19 cases are: ▪️ #Patna: 3863 Cases ▪️ #Bhagalpur: 954 Cases ▪️ #Nalanda: 954 Cases #COVID__19 #COVID #Covid_19 #COVIDー19 #COVID19India #COVIDUpdates #coronavirus #CoronaUpdates #CoronavirusIndia #CoronaVirusUpdates https://t.co/Lcwn23Tvnp</t>
-  </si>
-  <si>
-    <t>Coronavirus is caused by snakes.</t>
-  </si>
-  <si>
-    <t>#Wildfire smoke symptoms are too similar to #coronavirus adding pressure to strapped EDs. https://t.co/VPuRrkopvS</t>
-  </si>
-  <si>
-    <t>Renata Vasconcellos, one of Brazil's most famous news anchor, contracted COVID-19.</t>
-  </si>
-  <si>
-    <t>Irish news organisations are organising a collective moment of applause for the government to praise its work in handling the coronavirus pandemic.</t>
-  </si>
-  <si>
-    <t>Claim that disease outbreaks and pandemics correspond with election years.</t>
-  </si>
-  <si>
-    <t>At least 5 dermatologic patterns exist in patients suspected or confirmed for #COVID19. https://t.co/EZmbwdHlxm https://t.co/oLOsXEELxg</t>
-  </si>
-  <si>
-    <t>The UK has a plan for reopening schools. https://t.co/ff2CLKj75P https://t.co/ppNwjh5xmw</t>
-  </si>
-  <si>
-    <t>India surpasses Russia to become the third worst-affected country worldwide after the United States and Brazil: John Hopkins University. Maharashtra government allows reopening of hotels and lodges outside containment zones from 8 July. #COVID19 #coronavirusFacts https://t.co/3Ms7InEJRK</t>
-  </si>
-  <si>
-    <t>Thirty-eight new cases of #COVID19 have been reported; 23 in Kano 5 in Gombe 3 in Kaduna 2 in Borno 2 in Abia 1 in FCT 1 in Sokoto 1 in Ekiti As at 11:10 pm 20th April there are 665 confirmed cases of #COVID19 reported in Nigeria. Discharged: 188 Deaths: 22 https://t.co/k354y8KS0W</t>
-  </si>
-  <si>
-    <t>RT @drharshvardhan: #COVID19 UPDATE 👉A total of 95735 new cases have been reported in the last 24 hours in the country 👉60% of the tota…</t>
-  </si>
-  <si>
-    <t>Our daily update is published. States reported 1.1 million tests 44k cases and 737 deaths. This is the first time we've seen more than 1 million tests reported. https://t.co/wx85TR8WcE</t>
-  </si>
-  <si>
-    <t>Of the 2159 people who left managed isolation facilities during this period around 60% have now been contacted and have tested negative for COVID-19. A further 366 people have been spoken with and referred for testing.</t>
-  </si>
-  <si>
-    <t>"I'm Putting The Little Bastards Up For Adoption": Read Some Of Ireland's Heartwarming Covid-19 Stories https://t.co/hBMTmlk06o</t>
-  </si>
-  <si>
-    <t>Contradictions plague Americans absent any consistent national messaging on #COVID19. https://t.co/TrC6WAhohh</t>
-  </si>
-  <si>
-    <t>COVID-19 Update There are 2 new cases of COVID-19 to report. Both are cases in the community and both have epidemiological links to the Auckland cluster.</t>
-  </si>
-  <si>
-    <t>.@Univcordoba clinical trial started by dosing COVID-19 patients with #HCQ, but then that #chloroquine cargo cult ship has sailed, or rather ran aground. Hence the clever investigators quickly switched to a new magic drug, #VitaminD. https://t.co/NF2KMD6DQT</t>
-  </si>
-  <si>
-    <t>A video accompanying a claim shows bodies being removed from a hospital in Iran during the novel coronavirus pandemic.</t>
-  </si>
-  <si>
-    <t>RT @DDIndialive: India's first #COVID19 vaccine candidate COVAXIN™ gets approval for human trials; it has been jointly developed by @ICMR…</t>
-  </si>
-  <si>
-    <t>_Allowances of Members of Parliament in India have been increased by 49 thousand rupees during the pandemic._</t>
-  </si>
-  <si>
-    <t>Image showing a mother hugging her baby infected with COVID-19 inside a laminar airflow room.</t>
-  </si>
-  <si>
-    <t>Meghan Markle Planning Huge $200K Birthday Party During Coronavirus Pandemic?</t>
-  </si>
-  <si>
-    <t>A video claims to show Chinese Muslims performing a communal Friday prayer in a mosque despite the novel coronavirus pandemic.</t>
-  </si>
-  <si>
-    <t>China deceived the world with the coronavirus pandemic and now is being punished by the God</t>
-  </si>
-  <si>
-    <t>A website claiming that China has confirmed that patient zero had sex with a bat.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: 📍According to the new guidelines there will be no restriction on Inter-State and Intra-State movement. #Unlock4 #StaySafe #IndiaWillWin Via @mygovindia https://t.co/O3yXoGffpy</t>
-  </si>
-  <si>
-    <t>Yesterday our laboratories completed 1960 tests bringing the total number of tests completed to date to 397470. This includes testing at managed isolation facilities and community-based testing across the country. The seven day rolling daily test average is 6950.</t>
-  </si>
-  <si>
-    <t>#COVID vaccine target in the US moves back to mid-2021; requires a full FDA approval process. https://t.co/Cnrn37a3nl</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India scales another peak. In last 24 hours 12 lakh tests were conducted across the country which is an all time record high. Total #COVID19 tests more than 6.37 cr. https://t.co/lamFdXFLs0</t>
-  </si>
-  <si>
-    <t>#INDIA: 
-A Muslim boy, Rizwan, died after being beaten up by police in Tanda (UP). His relatives say that he was hungry and went out to buy biscuits and 
-other domestic items.</t>
-  </si>
-  <si>
-    <t>_A video of an orangutan washing its hands has been viewed millions of times in Facebook Twitter and YouTube posts which claim the animal was imitating its zookeepers during the novel coronavirus pandemic._</t>
-  </si>
-  <si>
-    <t>A lab in Thane was closed for reporting false positive cases of COVID-19</t>
-  </si>
-  <si>
-    <t>This is how to test your lung for COVID-19 self-check.</t>
-  </si>
-  <si>
-    <t>There is no known cure for COVID-19 hydroxychloroquine is not a proven treatment and public health officials advise everyone to wear face masks in public. https://t.co/vIH89d6GZJ</t>
-  </si>
-  <si>
-    <t>#Dialysis patients hit hard by #COVID19 with a mortality rate of ~ 20%. https://t.co/MrStNCiJma</t>
-  </si>
-  <si>
-    <t>Drinking water every 15 minutes will protect people from coronavirus.</t>
-  </si>
-  <si>
-    <t>Our daily update is published. We’ve now tracked 20.6 million tests up 379k from yesterday the lowest total in a couple of weeks. One reason for the low number: Texas still hasn't reported. For details see: https://t.co/PZrmH4bl5Y https://t.co/QnfWxOn1gF</t>
-  </si>
-  <si>
-    <t>Authorities from the Guatemalan Ministry of Health said they would buy at least 200 respirators but there has been talk of a shortage of this type of medical equipment.</t>
-  </si>
-  <si>
-    <t>All passenger/express / other trains cancelled till September 30th due to Corona epidemic. The railway extends cancellation of all passenger/express / suburban trains till September 30 in the wake of COVID pandemic.</t>
-  </si>
-  <si>
-    <t>Fact Check: Neither The Viral Post On Coronavirus (COVID-19) Is From UNICEF Nor It Is Accurate</t>
-  </si>
-  <si>
-    <t>The greatest risk for #COVID19 infection is among those who are in close contact with people who have COVID-19. This includes family members and healthcare workers who care for people who are infected. https://t.co/Ga2u5k439X.</t>
-  </si>
-  <si>
-    <t>Videos show Chinese people spreading the coronavirus in other countries.</t>
-  </si>
-  <si>
-    <t>False: @VP Mike Pence's claim that Oklahoma flattened the COVID-19 curve. Data shows that Oklahoma’s daily caseload has risen consistently in June and to levels higher than at any point in the pandemic. https://t.co/i3ZpMDFEie https://t.co/BX8FjWE4LD</t>
-  </si>
-  <si>
-    <t>New large scale study aims to find out why BAME healthcare workers are at higher risk for COVID-19. https://t.co/yRnbULrJrt</t>
-  </si>
-  <si>
-    <t>BREAKING! Staying in lockdown and adhering to social distancing guidelines isn't necessary if you are really horny, insists Prof Neil Ferguson</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: 📍Metro rail Metro will be allowed to operate with effect from 7th September 2020👇 #StaySafe #IndiaWillWin #Unlock4 https://t.co/SvJhdHHhsS</t>
-  </si>
-  <si>
-    <t>No wearing a face mask will not cause carbon dioxide toxicity. Don't believe the misinformation on the internet. Read #CoronaCheck instead: https://t.co/WIbEdynkAK #coronavirusfacts #datoscoronavirus https://t.co/HSLybUsw4I</t>
-  </si>
-  <si>
-    <t>???This virus has a cure. It is called hydroxychloroquine, zinc, and Zithromax. I know you people want to talk about a mask. Hello? You don???t need (a) mask. There is a cure.??�</t>
-  </si>
-  <si>
-    <t>India crosses another landmark- records highest ever tests in a single day. More than 10.5 lakh #COVID19 tests conducted in the last 24 hrs. All State/UTs conducting more than 140 tests/day/million as advised by WHO. https://t.co/8KaLl3O7QY https://t.co/Wf3L1xY7Ir</t>
-  </si>
-  <si>
-    <t>242 new cases of #COVID19; 88-Lagos 64-Kano 49-Katsina 13-Kaduna 9-Ogun 6-Gombe 4-Adamawa 3-FCT 1-Ondo 1-Oyo 1–Rivers 1-Zamfara 1-Borno 1-Bauchi 4641 cases of #COVID19 in Nigeria Discharged: 902 Deaths: 150 https://t.co/2eK1cRJeH0</t>
-  </si>
-  <si>
-    <t>A video allegedly showing a man spitting on the bread slices is being shared with a communal spin in India.</t>
-  </si>
-  <si>
-    <t>74% of countries responding to a recent WHO global assessment of continuity of essential health services during #COVID19 reported that dental services have been partially or completely disrupted. This figure is higher than for any other type of essential service. https://t.co/j6RXgkHtem</t>
-  </si>
-  <si>
-    <t>@robreiner Politicized doctors are still not treating Covid + patients within 5 days. Still sending people home to quarantine for 14 days without treatment. Still not using Hydroxy chloroquine and instead using less effective drugs. This is murder!</t>
-  </si>
-  <si>
-    <t>A video has been viewed thousands of times in multiple posts on Facebook Twitter and YouTube which claim it shows Chinese police arresting people infected with the novel coronavirus.</t>
-  </si>
-  <si>
-    <t>Nurse says Brazilian states and municipalities earn federal funding for every death recorded for COVID-19.</t>
-  </si>
-  <si>
-    <t>Coronavirus: Labour conference 'with a difference' to welcome twice as many as normal annual event https://t.co/69AmGACDZb</t>
-  </si>
-  <si>
-    <t>Bill Gates predicted the coronavirus outbreak.</t>
-  </si>
-  <si>
-    <t>The novel coronavirus was made in a lab and is now spread as a way to force vaccinate people.</t>
-  </si>
-  <si>
-    <t>195 new cases of #COVID19; 82-Lagos 30-Kano 19-Zamfara 18-Sokoto 10-Borno 9-FCT 8-Oyo 5-Kebbi 5-Gombe 4-Ogun 3-Katsina 1-Kaduna 1-Adamawa 3145 confirmed cases of #COVID19 in Nigeria Discharged: 534 Deaths: 103 https://t.co/kqXEbfj66X</t>
-  </si>
-  <si>
-    <t>.@realDonaldTrump has claimed that the U.S. has "one of the lowest mortality rates in the world” from COVID-19. That's False. https://t.co/GdFjrXl032</t>
-  </si>
-  <si>
-    <t>Our daily update is published. We’ve now tracked almost 4.7 million tests up 193k (!) from yesterday. Note that we can only track tests that a state reports. For details see: https://t.co/PZrmH4bl5Y https://t.co/UAcKIDmRq2</t>
-  </si>
-  <si>
-    <t>Tear gas is more dangerous in a coronavirus pandemic experts warn. https://t.co/Yv7HE1JEjv</t>
-  </si>
-  <si>
-    <t>Fox News Report on US President Trump testing positive for COVID-19.</t>
-  </si>
-  <si>
-    <t>???Corona is so bad, this guy died twice!??�</t>
-  </si>
-  <si>
-    <t>Deaths were the lowest since Monday: 1654. The weekend reporting effect is probably in play here but nonetheless better than the reverse. https://t.co/J5rKehABeX</t>
-  </si>
-  <si>
-    <t>Regular class activity will remain closed for students up to 30.9.2020 as per @HMOIndia #unlock4: https://t.co/4Je5avT2HL GoI is following a phase-wise unlocking of activities &amp;amp; starting with the partial resumption of activities in schools for students of classes 9-12th... (1/2) https://t.co/XnA3xjAKiz</t>
-  </si>
-  <si>
-    <t>Bhutan has zero COVID-19 cases thanks to its vegetarian diet.</t>
-  </si>
-  <si>
-    <t>Our overall COVID-19 strategy remains elimination. That requires ongoing stamping out of the virus anytime it comes back. Together we have kept COVID out for 102 days - longer than any other country. We can do all of that again.</t>
-  </si>
-  <si>
-    <t>RT @drharshvardhan: #CoronaVirusUpdates 👉 The total Recoveries have demonstrated a steep exponential rise 👉 India has reported the highe…</t>
-  </si>
-  <si>
-    <t>???The State of Florida has announced measures that all workplaces with 10 employees or more are to have paid mandatory leave to avoid the spread of COVID-19 coronavirus starting on March 6, 2020. All schools are to close for 2 weeks also from March 6th.??�</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona: The total recoveries in India have crossed 29 lakh (2901908) as of today. Last 10 lakh recoveries have been recorded in only 17 days in comparison to preceding 10 lakh recoveries which were recorded in 22 days. #StaySafe #IndiaWillWin @ICMRDELHI https://t.co/Ob6yFTP4AH</t>
-  </si>
-  <si>
-    <t>Health Depts: CDC guidance on #COVID19 contact tracing is now available to help plan implement and enhance COVID-19 case investigation and contact tracing efforts. Learn more: https://t.co/kzqeV8ZM61 https://t.co/iY9xaIRims</t>
-  </si>
-  <si>
-    <t>#covid19 #coronavirus #coronaoutbreak ITALY: Hospitals overwhelmed as hundreds die daily from the #coronavirus 
- https://t.co/bLha07kGJG</t>
-  </si>
-  <si>
-    <t>Not trying to sensationalize but Begum got infected, So did the driver. Imran Uncle did not get infected!</t>
-  </si>
-  <si>
-    <t>Angela Rayner says the government's figures show an average of 62000 coronavirus tests are conducted daily and asks how the Prime Minister can explain this. PM insists tests are up to 240000 a day this week. Follow #PMQs live: https://t.co/Z3vlMLXetQ https://t.co/EFNjvIrd5m</t>
-  </si>
-  <si>
-    <t>In Texas the number of currently hospitalized COVID-19 patients has been over 10k for the last three days. New York at its peak had 18.8k hospitalized COVID-19 patients. https://t.co/vhn6Z512DU</t>
-  </si>
-  <si>
-    <t>Acc to @HMOIndia #unlock4guidelines wearing of #facemask is compulsory in public places workplaces and during transport. Under DMA 2005 any person violating these measure is liable for legal action as per rules &amp;amp; regulations specified by the State/UTs: https://t.co/4Je5avT2HL https://t.co/C0FDz6eElZ</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India witnesses an Unprecedented Surge in Daily Testing. More than 11.7 lakh #COVID19 tests conducted in the last 24 hrs. More than 4.5 cr Total Tests conducted. https://t.co/BcyLVGqNyP https://t.co/2zNDxT6l76</t>
-  </si>
-  <si>
-    <t>“Majority of #COVID19 cases in Nigeria are recorded among the 31 to 40 age group while ages 50 &amp;amp; above account for majority of fatalities. When we ask that Nigerians #TakeResponsibility it’s beyond protecting one’s self but the vulnerable population as well” ~@ElsieIlori https://t.co/9KwDL0aub6</t>
-  </si>
-  <si>
-    <t>The governor of Rio de Janeiro is paying a special COVID-19 monthly allowance of BRL 836.00 to all inmates in the state. Meanwhile the emergency COVID-19 for poor people who are not convicted criminals is only BRL 600.</t>
-  </si>
-  <si>
-    <t>???The Supreme Court ruled today NO VOTING BY MAIL !!!??�</t>
-  </si>
-  <si>
-    <t>UPDATE: #COVID19 #CoronaVirus in Italy: ➡️Reproduction number R &amp;lt;1 ➡️No herd immunity reached ➡️20% return to pre-lockdown mobility may lead to resurgence in deaths ➡️Enhanced surveillance needed to reduce risk of resurgence 🔰Report https://t.co/lcFch0FxCt https://t.co/pnN4MdIEaY</t>
-  </si>
-  <si>
-    <t>China exports masks infected with COVID-19.</t>
-  </si>
-  <si>
-    <t>#IndiaFightsCorona India has progressively maintained a low Case Fatality Rate (1.7% today compared to global average of 3.28%). The aim is to achieve a national CFR of less than 1%. There are 17 States/UTs that are even today reporting mortality figures lower than 1%. https://t.co/fSviaHEK5m</t>
-  </si>
-  <si>
-    <t>Many more cities and states will start requiring face masks and coverings. Make sure you and your loved ones are prepared. https://t.co/wsn2ghkZRp via @USATODAY</t>
-  </si>
-  <si>
-    <t>Five new cases of #COVID19 have been confirmed in Nigeria: 2 in FCT 2 in Lagos &amp;amp; 1 in Edo 2 cases are returning travellers from the UK As at 09:45 am on 23rd March there are 35 confirmed cases of #COVID19 in Nigeria. 2 have been discharged https://t.co/brTI9PFsYH</t>
-  </si>
-  <si>
-    <t>The coronavirus outbreak is caused by 5G technology.</t>
-  </si>
-  <si>
-    <t>BREAKING: Former presidential candidate Herman Cain dies of COVID-19 https://t.co/d9dh1roDLy</t>
-  </si>
-  <si>
-    <t>Deaths remained below 1500 bringing our dataset's recorded deaths to 87472. For a Wednesday this is lower than average. The cumulative total does not include 4781 probable deaths reported by NYC but not NY State. https://t.co/heaw3ZRLcH</t>
-  </si>
-  <si>
-    <t>Collecting data about race is fundamental to understanding this outbreak. We know the health care system underserves black communities. We know that Latinx and Asian communities experience overlapping but distinct barriers to care too.</t>
-  </si>
-  <si>
-    <t>Fauci called the launches “importanttesting patients both in and out of the hospital. https://t.co/Ahmd3Bz10H #coronavirus</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -1444,24 +1066,24 @@
   </sheetPr>
   <dimension ref="A1:C6421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="192.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>345</v>
+        <v>220</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>346</v>
+        <v>221</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>347</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3863,1379 +3485,629 @@
       </c>
     </row>
     <row r="220" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="2">
-        <v>621</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A220" s="2"/>
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
     </row>
     <row r="221" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A221" s="2">
-        <v>622</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A221" s="2"/>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
     </row>
     <row r="222" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A222" s="2">
-        <v>623</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A222" s="2"/>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
     </row>
     <row r="223" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>624</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A223" s="2"/>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
     </row>
     <row r="224" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
-        <v>625</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A224" s="2"/>
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
     </row>
     <row r="225" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
-        <v>626</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A225" s="2"/>
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
     </row>
     <row r="226" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
-        <v>627</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A226" s="2"/>
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
     </row>
     <row r="227" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
-        <v>628</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A227" s="2"/>
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
     </row>
     <row r="228" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
-        <v>629</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A228" s="2"/>
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
     </row>
     <row r="229" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
-        <v>630</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A229" s="2"/>
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
     </row>
     <row r="230" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
-        <v>631</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A230" s="2"/>
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
     </row>
     <row r="231" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
-        <v>632</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A231" s="2"/>
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
     </row>
     <row r="232" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
-        <v>633</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A232" s="2"/>
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
     </row>
     <row r="233" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
-        <v>634</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A233" s="2"/>
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
     </row>
     <row r="234" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="2">
-        <v>635</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A234" s="2"/>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
     </row>
     <row r="235" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
-        <v>636</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A235" s="2"/>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
     </row>
     <row r="236" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
-        <v>637</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A236" s="2"/>
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
     </row>
     <row r="237" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
-        <v>638</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A237" s="2"/>
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
     </row>
     <row r="238" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
-        <v>639</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
     </row>
     <row r="239" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
-        <v>640</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A239" s="2"/>
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
     </row>
     <row r="240" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
-        <v>641</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A240" s="2"/>
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
     </row>
     <row r="241" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A241" s="2">
-        <v>642</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A241" s="2"/>
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
     </row>
     <row r="242" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A242" s="2">
-        <v>643</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A242" s="2"/>
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
     </row>
     <row r="243" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A243" s="2">
-        <v>644</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A243" s="2"/>
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
     </row>
     <row r="244" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A244" s="2">
-        <v>645</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A244" s="2"/>
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
     </row>
     <row r="245" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A245" s="2">
-        <v>646</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A245" s="2"/>
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
     </row>
     <row r="246" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A246" s="2">
-        <v>647</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A246" s="2"/>
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
     </row>
     <row r="247" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A247" s="2">
-        <v>648</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A247" s="2"/>
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
     </row>
     <row r="248" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="2">
-        <v>649</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A248" s="2"/>
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
     </row>
     <row r="249" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="2">
-        <v>650</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A249" s="2"/>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
     </row>
     <row r="250" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A250" s="2">
-        <v>651</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A250" s="2"/>
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
     </row>
     <row r="251" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A251" s="2">
-        <v>652</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A251" s="2"/>
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
     </row>
     <row r="252" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A252" s="2">
-        <v>653</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A252" s="2"/>
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
     </row>
     <row r="253" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A253" s="2">
-        <v>654</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A253" s="2"/>
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
     </row>
     <row r="254" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A254" s="2">
-        <v>655</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A254" s="2"/>
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
     </row>
     <row r="255" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A255" s="2">
-        <v>656</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A255" s="2"/>
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
     </row>
     <row r="256" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A256" s="2">
-        <v>657</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A256" s="2"/>
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
     </row>
     <row r="257" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A257" s="2">
-        <v>658</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A257" s="2"/>
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
     </row>
     <row r="258" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="2">
-        <v>659</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A258" s="2"/>
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
     </row>
     <row r="259" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A259" s="2">
-        <v>660</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A259" s="2"/>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
     </row>
     <row r="260" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A260" s="2">
-        <v>661</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A260" s="2"/>
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
     </row>
     <row r="261" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A261" s="2">
-        <v>662</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A261" s="2"/>
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
     </row>
     <row r="262" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="2">
-        <v>663</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A262" s="2"/>
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
     </row>
     <row r="263" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A263" s="2">
-        <v>664</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A263" s="2"/>
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A264" s="2">
-        <v>665</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A264" s="2"/>
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
     </row>
     <row r="265" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A265" s="2">
-        <v>666</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A265" s="2"/>
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
     </row>
     <row r="266" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A266" s="2">
-        <v>667</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A266" s="2"/>
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
     </row>
     <row r="267" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A267" s="2">
-        <v>668</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A267" s="2"/>
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
     </row>
     <row r="268" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A268" s="2">
-        <v>669</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A268" s="2"/>
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
     </row>
     <row r="269" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A269" s="2">
-        <v>670</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A269" s="2"/>
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
     </row>
     <row r="270" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="2">
-        <v>671</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A270" s="2"/>
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
     </row>
     <row r="271" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A271" s="2">
-        <v>672</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A271" s="2"/>
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
     </row>
     <row r="272" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="2">
-        <v>673</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A272" s="2"/>
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
     </row>
     <row r="273" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A273" s="2">
-        <v>674</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A273" s="2"/>
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
     </row>
     <row r="274" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A274" s="2">
-        <v>675</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A274" s="2"/>
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
     </row>
     <row r="275" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A275" s="2">
-        <v>676</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C275" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A275" s="2"/>
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
     </row>
     <row r="276" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="2">
-        <v>677</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C276" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A276" s="2"/>
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
     </row>
     <row r="277" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A277" s="2">
-        <v>678</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C277" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A277" s="2"/>
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
     </row>
     <row r="278" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A278" s="2">
-        <v>679</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C278" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A278" s="2"/>
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
     </row>
     <row r="279" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A279" s="2">
-        <v>680</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A279" s="2"/>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
     </row>
     <row r="280" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A280" s="2">
-        <v>681</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A280" s="2"/>
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
     </row>
     <row r="281" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A281" s="2">
-        <v>682</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A281" s="2"/>
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
     </row>
     <row r="282" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A282" s="2">
-        <v>683</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A282" s="2"/>
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
     </row>
     <row r="283" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A283" s="2">
-        <v>684</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C283" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A283" s="2"/>
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
     </row>
     <row r="284" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A284" s="2">
-        <v>685</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A284" s="2"/>
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
     </row>
     <row r="285" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A285" s="2">
-        <v>686</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C285" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A285" s="2"/>
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
     </row>
     <row r="286" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A286" s="2">
-        <v>687</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C286" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A286" s="2"/>
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
     </row>
     <row r="287" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A287" s="2">
-        <v>688</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A287" s="2"/>
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
     </row>
     <row r="288" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A288" s="2">
-        <v>689</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A288" s="2"/>
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
     </row>
     <row r="289" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A289" s="2">
-        <v>690</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C289" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A289" s="2"/>
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
     </row>
     <row r="290" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A290" s="2">
-        <v>691</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C290" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A290" s="2"/>
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
     </row>
     <row r="291" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A291" s="2">
-        <v>692</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C291" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A291" s="2"/>
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
     </row>
     <row r="292" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A292" s="2">
-        <v>693</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C292" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A292" s="2"/>
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
     </row>
     <row r="293" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A293" s="2">
-        <v>694</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C293" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A293" s="2"/>
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
     </row>
     <row r="294" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A294" s="2">
-        <v>695</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="C294" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A294" s="2"/>
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
     </row>
     <row r="295" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A295" s="2">
-        <v>696</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C295" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A295" s="2"/>
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
     </row>
     <row r="296" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A296" s="2">
-        <v>697</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="C296" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A296" s="2"/>
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
     </row>
     <row r="297" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A297" s="2">
-        <v>698</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A297" s="2"/>
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
     </row>
     <row r="298" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A298" s="2">
-        <v>699</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A298" s="2"/>
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
     </row>
     <row r="299" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A299" s="2">
-        <v>700</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A299" s="2"/>
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
     </row>
     <row r="300" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A300" s="2">
-        <v>701</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A300" s="2"/>
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
     </row>
     <row r="301" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A301" s="2">
-        <v>702</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A301" s="2"/>
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
     </row>
     <row r="302" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A302" s="2">
-        <v>703</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C302" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A302" s="2"/>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
     </row>
     <row r="303" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A303" s="2">
-        <v>704</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C303" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A303" s="2"/>
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
     </row>
     <row r="304" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A304" s="2">
-        <v>705</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A304" s="2"/>
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
     </row>
     <row r="305" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A305" s="2">
-        <v>706</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A305" s="2"/>
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
     </row>
     <row r="306" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A306" s="2">
-        <v>707</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A306" s="2"/>
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
     </row>
     <row r="307" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A307" s="2">
-        <v>708</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A307" s="2"/>
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
     </row>
     <row r="308" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A308" s="2">
-        <v>709</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A308" s="2"/>
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
     </row>
     <row r="309" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A309" s="2">
-        <v>710</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A309" s="2"/>
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
     </row>
     <row r="310" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A310" s="2">
-        <v>711</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A310" s="2"/>
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
     </row>
     <row r="311" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A311" s="2">
-        <v>712</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A311" s="2"/>
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
     </row>
     <row r="312" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A312" s="2">
-        <v>713</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A312" s="2"/>
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
     </row>
     <row r="313" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A313" s="2">
-        <v>714</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A313" s="2"/>
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
     </row>
     <row r="314" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A314" s="2">
-        <v>715</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A314" s="2"/>
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
     </row>
     <row r="315" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A315" s="2">
-        <v>716</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A315" s="2"/>
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
     </row>
     <row r="316" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A316" s="2">
-        <v>717</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A316" s="2"/>
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
     </row>
     <row r="317" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A317" s="2">
-        <v>718</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A317" s="2"/>
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
     </row>
     <row r="318" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A318" s="2">
-        <v>719</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A318" s="2"/>
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
     </row>
     <row r="319" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A319" s="2">
-        <v>720</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A319" s="2"/>
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
     </row>
     <row r="320" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A320" s="2">
-        <v>721</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A320" s="2"/>
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
     </row>
     <row r="321" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A321" s="2">
-        <v>722</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C321" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A321" s="2"/>
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
     </row>
     <row r="322" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A322" s="2">
-        <v>723</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C322" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A322" s="2"/>
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
     </row>
     <row r="323" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A323" s="2">
-        <v>724</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C323" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A323" s="2"/>
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
     </row>
     <row r="324" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A324" s="2">
-        <v>725</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A324" s="2"/>
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
     </row>
     <row r="325" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A325" s="2">
-        <v>726</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="C325" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A325" s="2"/>
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
     </row>
     <row r="326" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A326" s="2">
-        <v>727</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C326" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A326" s="2"/>
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
     </row>
     <row r="327" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A327" s="2">
-        <v>728</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C327" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A327" s="2"/>
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
     </row>
     <row r="328" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A328" s="2">
-        <v>729</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C328" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A328" s="2"/>
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
     </row>
     <row r="329" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A329" s="2">
-        <v>730</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C329" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A329" s="2"/>
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
     </row>
     <row r="330" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A330" s="2">
-        <v>731</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C330" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A330" s="2"/>
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
     </row>
     <row r="331" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A331" s="2">
-        <v>732</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C331" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A331" s="2"/>
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
     </row>
     <row r="332" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A332" s="2">
-        <v>733</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="C332" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A332" s="2"/>
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
     </row>
     <row r="333" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A333" s="2">
-        <v>734</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C333" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
     </row>
     <row r="334" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A334" s="2">
-        <v>735</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C334" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A334" s="2"/>
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
     </row>
     <row r="335" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A335" s="2">
-        <v>736</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C335" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A335" s="2"/>
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
     </row>
     <row r="336" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A336" s="2">
-        <v>737</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C336" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A336" s="2"/>
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
     </row>
     <row r="337" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A337" s="2">
-        <v>738</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A337" s="2"/>
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
     </row>
     <row r="338" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A338" s="2">
-        <v>739</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A338" s="2"/>
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
     </row>
     <row r="339" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A339" s="2">
-        <v>740</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A339" s="2"/>
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
     </row>
     <row r="340" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A340" s="2">
-        <v>741</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A340" s="2"/>
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
     </row>
     <row r="341" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A341" s="2">
-        <v>742</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="A341" s="2"/>
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
     </row>
     <row r="342" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A342" s="2">
-        <v>743</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A342" s="2"/>
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
     </row>
     <row r="343" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A343" s="2">
-        <v>744</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A343" s="2"/>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
     </row>
     <row r="344" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A344" s="2">
-        <v>745</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A344" s="2"/>
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
     </row>
     <row r="345" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
@@ -35628,21 +34500,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010000E78AF11E754646AA592EDA218D5F94" ma:contentTypeVersion="2" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="cb9d5243d5e912349fe1a4d4c8d6cb85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2cc73722-0bc8-4945-a9ce-9fd4614c5ce5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="192d0e71e7dd23fb68c821970bc25c76" ns2:_="">
     <xsd:import namespace="2cc73722-0bc8-4945-a9ce-9fd4614c5ce5"/>
@@ -35774,24 +34631,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5076AB0-C6EB-4927-BE84-F0149EAF5898}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE87362-4083-4B73-8FBF-F163F5598C36}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6200F3D-D995-4719-869F-758E09F7963E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -35807,4 +34662,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BE87362-4083-4B73-8FBF-F163F5598C36}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5076AB0-C6EB-4927-BE84-F0149EAF5898}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>